--- a/Projects/231009_LDW/results/Opt_231009_LDW.xlsx
+++ b/Projects/231009_LDW/results/Opt_231009_LDW.xlsx
@@ -547,6802 +547,6802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9981639217977964</v>
+        <v>0.9979593047570945</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001386411369153414</v>
+        <v>0.9974531766002956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01032807212043453</v>
+        <v>0.000221539011798903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8630545772034048</v>
+        <v>0.002939780812567516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006794759257933764</v>
+        <v>0.7673061598808699</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1324880646398046</v>
+        <v>0.1596477616797689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06325437010010194</v>
+        <v>0.02375537646496786</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000241038563839946</v>
+        <v>0.001692554500327125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001821261873766117</v>
+        <v>6.508769010226713e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008716469404954984</v>
+        <v>0.002918507348647891</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1119842697902394</v>
+        <v>0.7066343881068411</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9540317688270432</v>
+        <v>0.7938197665010562</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3661343642205013</v>
+        <v>0.4310091420524568</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6619426845920284</v>
+        <v>0.8762615489882729</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06898999078055149</v>
+        <v>0.02554742975887429</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1198396378616625</v>
+        <v>0.04040802863078556</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6555021589575614</v>
+        <v>0.7144460708204284</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001525982940015873</v>
+        <v>0.001610888693543837</v>
       </c>
       <c r="S2" t="n">
-        <v>84.10112455294365</v>
+        <v>82.6543623169669</v>
       </c>
       <c r="T2" t="n">
-        <v>77.96185526524123</v>
+        <v>78.08870152632942</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1042328687380189</v>
+        <v>0.1040921696724719</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.02528850364872447</v>
+        <v>0.008318452205336981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9444801744232638</v>
+        <v>0.9814786665717004</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7793443497482655</v>
+        <v>0.4429597720502479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01773721309209902</v>
+        <v>0.002060686160310521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09771771630739243</v>
+        <v>0.0167592529560183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2525591287122697</v>
+        <v>0.0007137026667881352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08044989840251465</v>
+        <v>0.1601064945865717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0009076539905796864</v>
+        <v>0.003543634162277251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003022772033666117</v>
+        <v>0.002388156349827406</v>
       </c>
       <c r="I3" t="n">
-        <v>2.909241793797414e-05</v>
+        <v>0.00014099768960431</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002493374393487804</v>
+        <v>0.0002601611033435709</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03700268034838414</v>
+        <v>0.2364316017300223</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9494588070953849</v>
+        <v>0.9064695713570672</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001473015100194082</v>
+        <v>0.0004125074647922541</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04039107675757547</v>
+        <v>0.00597155921708082</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04274255063522784</v>
+        <v>0.1266401322702227</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06519268143068516</v>
+        <v>0.4042779147669848</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6566216363253335</v>
+        <v>0.7207145603421892</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001523063747922534</v>
+        <v>0.001602070430126158</v>
       </c>
       <c r="S3" t="n">
-        <v>84.13427724026096</v>
+        <v>82.72759500503916</v>
       </c>
       <c r="T3" t="n">
-        <v>77.95140778709781</v>
+        <v>78.09484952645839</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1040018922157475</v>
+        <v>0.1040232603489843</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.01792870387436608</v>
+        <v>-0.002530686673319158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3085170725552756</v>
+        <v>0.9812674432850605</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9690743065180466</v>
+        <v>0.992845582563692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6541565574115928</v>
+        <v>0.01035159122963367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9760857826597802</v>
+        <v>0.0003302445661929609</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2011859126796026</v>
+        <v>0.6929095849371459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3984208529319085</v>
+        <v>0.1053726236701352</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01259849651815477</v>
+        <v>0.003051956939362999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009243646780522849</v>
+        <v>0.01019942911379838</v>
       </c>
       <c r="I4" t="n">
-        <v>3.71269376527896e-05</v>
+        <v>0.0001244137776286887</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006472693432681767</v>
+        <v>0.00182138583289093</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008634548138005849</v>
+        <v>0.3743498275368142</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9838603617269389</v>
+        <v>0.0640774642030274</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004643913524077536</v>
+        <v>0.4439779933748356</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3601695210288686</v>
+        <v>0.8984426495584003</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05791428720180272</v>
+        <v>0.002119586425553935</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6738747512067683</v>
+        <v>0.03953308011017359</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6634415307446222</v>
+        <v>0.7261802484312367</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001519224508216043</v>
+        <v>0.001614306354937907</v>
       </c>
       <c r="S4" t="n">
-        <v>84.09900230358821</v>
+        <v>82.81314043667535</v>
       </c>
       <c r="T4" t="n">
-        <v>78.00315504955871</v>
+        <v>78.05259655496342</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1042617547427621</v>
+        <v>0.1043647408757675</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.02123268233120112</v>
+        <v>0.01487152660759306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2114531782376898</v>
+        <v>0.221975736739975</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8066839299086037</v>
+        <v>0.1029933773432011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5884540593480239</v>
+        <v>0.03977620133355589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1459223451140138</v>
+        <v>0.1836429565877132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.409840468361252</v>
+        <v>0.9917161816131288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05155575501233563</v>
+        <v>0.1591518571513221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008859705584510151</v>
+        <v>0.002910644792525878</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002869024043356686</v>
+        <v>0.002304755253004931</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001580317400683509</v>
+        <v>4.078194947162268e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>9.749163182235219e-05</v>
+        <v>0.002657034798171323</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002084530987297079</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L5" t="n">
-        <v>0.932784124840525</v>
+        <v>0.0998617502397155</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001235546861873471</v>
+        <v>0.003379105230614819</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000375084719987033</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04310961877691029</v>
+        <v>0.2382897838843782</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1096519583452301</v>
+        <v>0.4100723717871997</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6651731188499496</v>
+        <v>0.7265754231715825</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001519746388167227</v>
+        <v>0.001614182520073951</v>
       </c>
       <c r="S5" t="n">
-        <v>84.07025515754576</v>
+        <v>82.81819345595942</v>
       </c>
       <c r="T5" t="n">
-        <v>77.99835219531347</v>
+        <v>78.04449638143436</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1039184592438082</v>
+        <v>0.1041042027367605</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01683698148184</v>
+        <v>-0.01474941737187729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9778835419380921</v>
+        <v>0.07674687402341721</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7512667419887524</v>
+        <v>0.09833583356378242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1270072788879178</v>
+        <v>0.01816388131412901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533892402817107</v>
+        <v>0.0001254000540055165</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4563827377717791</v>
+        <v>0.9734292803024099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9657906922593759</v>
+        <v>0.1612713339550498</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05132872921420128</v>
+        <v>0.002644022236101469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001275295531344946</v>
+        <v>0.0002091020427749679</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002401569980042497</v>
+        <v>2.014907218286403e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001034048892538646</v>
+        <v>0.0002553322923265922</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7847861222873086</v>
+        <v>0.3579918210152598</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9896428444879325</v>
+        <v>0.004105551295198073</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3048150890227528</v>
+        <v>0.003179959823122725</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7959696998308337</v>
+        <v>0.0001359153753559706</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1217342641422377</v>
+        <v>0.1063457504400736</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7812081467040801</v>
+        <v>0.1055050136701242</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6755324145124364</v>
+        <v>0.7312458852963729</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001532212106352209</v>
+        <v>0.001598952083274081</v>
       </c>
       <c r="S6" t="n">
-        <v>83.9275513746049</v>
+        <v>82.99001187782909</v>
       </c>
       <c r="T6" t="n">
-        <v>78.04942600312799</v>
+        <v>78.02332898531112</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1039497864607221</v>
+        <v>0.1039392959714352</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01680886421793504</v>
+        <v>-0.00705020315048948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9907787532123741</v>
+        <v>0.4780825805486169</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7741625502786172</v>
+        <v>0.9771840523012501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003749481965314383</v>
+        <v>0.02336457421867082</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06769493748874889</v>
+        <v>0.52482717978129</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3412841929592035</v>
+        <v>0.1425625722810053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07669616839053767</v>
+        <v>0.2412675506217</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002591025702140764</v>
+        <v>0.0941541967382945</v>
       </c>
       <c r="H7" t="n">
-        <v>1.845188442517118e-05</v>
+        <v>0.05166842860552502</v>
       </c>
       <c r="I7" t="n">
-        <v>1.267869582789685e-05</v>
+        <v>0.008971548736104814</v>
       </c>
       <c r="J7" t="n">
-        <v>2.261580244419121e-05</v>
+        <v>0.005055115895626078</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4119679384952449</v>
+        <v>0.2851979178834086</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8982725313800651</v>
+        <v>0.6610182635136381</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00146874154015985</v>
+        <v>0.412737950653925</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01889121343747678</v>
+        <v>0.8601828671647752</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05943323736072707</v>
+        <v>0.0174307800428759</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06519268143068516</v>
+        <v>0.04688866468648059</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6765452891423707</v>
+        <v>0.7355797899844521</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001542116108853874</v>
+        <v>0.001640996135065252</v>
       </c>
       <c r="S7" t="n">
-        <v>83.86078733131853</v>
+        <v>82.61881060487862</v>
       </c>
       <c r="T7" t="n">
-        <v>78.04356340039101</v>
+        <v>78.01767653035405</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1039005087402034</v>
+        <v>0.1063290231259146</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01736429564458852</v>
+        <v>0.015897043679657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9765441115023963</v>
+        <v>0.05635650193763617</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8819830623128506</v>
+        <v>0.4163651485952531</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0226646815275196</v>
+        <v>0.0003249254844259405</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5873248410065147</v>
+        <v>0.01496173108468449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4404192729503787</v>
+        <v>0.0007871368441035454</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1965777093074866</v>
+        <v>0.04384005561763323</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03672191996195018</v>
+        <v>0.004717801636902445</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03123110653565396</v>
+        <v>0.0003500138474022609</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006567891821391202</v>
+        <v>0.0003420022494955017</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0009959826657211142</v>
+        <v>0.0002672370136501587</v>
       </c>
       <c r="K8" t="n">
-        <v>0.95389133967269</v>
+        <v>0.6840762885092037</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9897184824077234</v>
+        <v>0.7396916973110146</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3107469826240165</v>
+        <v>0.0003433928623389655</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7728880967875382</v>
+        <v>0.008326200864063049</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1160339105297769</v>
+        <v>0.1032097693606002</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7123540713136074</v>
+        <v>0.9947405599441841</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.67974167842573</v>
+        <v>0.7419513210507571</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001530295686330198</v>
+        <v>0.001653629950074165</v>
       </c>
       <c r="S8" t="n">
-        <v>83.94132923289288</v>
+        <v>82.5214701605845</v>
       </c>
       <c r="T8" t="n">
-        <v>78.05573902205251</v>
+        <v>78.01184967374434</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1051019400461159</v>
+        <v>0.1039566859050326</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.02655307454195039</v>
+        <v>-0.01904999499207098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9972657840483444</v>
+        <v>0.9997545265472683</v>
       </c>
       <c r="B9" t="n">
-        <v>0.959773116871574</v>
+        <v>0.9946958379551686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6991471377478424</v>
+        <v>0.01635376463052512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9954939609317701</v>
+        <v>0.1845931213493054</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4098141365483767</v>
+        <v>0.7161561720641751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2233103227375298</v>
+        <v>0.2566804643954365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03423631307565381</v>
+        <v>0.06821827080656331</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002542392006414115</v>
+        <v>0.01037137408336203</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005061637962078075</v>
+        <v>0.01501464539200636</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001195532929905511</v>
+        <v>0.0006254587178613786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5315729666092066</v>
+        <v>0.6950271273351482</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9966238004668687</v>
+        <v>0.6727254741167984</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0008028188935872726</v>
+        <v>0.4162196929238312</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04472318686975665</v>
+        <v>0.9285792881014066</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1208914741841154</v>
+        <v>0.002102264983109808</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7703666137637999</v>
+        <v>0.1216623004714649</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6862296980255055</v>
+        <v>0.7488193066451641</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001578300785824591</v>
+        <v>0.001651027436115703</v>
       </c>
       <c r="S9" t="n">
-        <v>83.99779622262209</v>
+        <v>82.52333085322984</v>
       </c>
       <c r="T9" t="n">
-        <v>77.81615027309401</v>
+        <v>78.03988769248178</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1039307513567168</v>
+        <v>0.1048730457852255</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.02659114687625008</v>
+        <v>0.00112163849128067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2792562847592747</v>
+        <v>0.9814786665717004</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9645134905715457</v>
+        <v>0.4429597720502479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6786411099115118</v>
+        <v>0.001249017497293115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9534975034170674</v>
+        <v>0.0167592529560183</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01827512044144985</v>
+        <v>0.03926143193206336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07612655401563265</v>
+        <v>0.1601064945865717</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001653862916485437</v>
+        <v>0.003694484757751235</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002158652450964147</v>
+        <v>0.00222337897972112</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001692747290186656</v>
+        <v>0.00014099768960431</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002740416535192833</v>
+        <v>0.0002601611033435709</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01729126545399795</v>
+        <v>0.2364316017300223</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9962026361845973</v>
+        <v>0.9064695713570672</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002482243266472117</v>
+        <v>0.01474487363337165</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5007451107949037</v>
+        <v>0.00597155921708082</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005472027988564186</v>
+        <v>0.008764233894930473</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6323856122101097</v>
+        <v>0.4042779147669848</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6884344774156893</v>
+        <v>0.7504947986476518</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001581155616543434</v>
+        <v>0.0015747220405285</v>
       </c>
       <c r="S10" t="n">
-        <v>84.0948777709004</v>
+        <v>84.30459908630066</v>
       </c>
       <c r="T10" t="n">
-        <v>77.81317601640261</v>
+        <v>77.85721620590316</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1040128870321406</v>
+        <v>0.1040172481344089</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.02407106232563403</v>
+        <v>-0.001955779645227751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4867369563586236</v>
+        <v>0.2048079448406553</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9520892814497962</v>
+        <v>0.1029933773432011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6247953556085027</v>
+        <v>0.02111508311972767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8672232870190151</v>
+        <v>0.1584565667338085</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4326890582301168</v>
+        <v>0.9914116977301652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.221456736094546</v>
+        <v>0.1611654669097312</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04009695939720606</v>
+        <v>0.003017387170479967</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005883199236926343</v>
+        <v>0.002466824437254337</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003117063207524492</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0007819264099686976</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K11" t="n">
-        <v>0.536488762805853</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9838866959044634</v>
+        <v>0.09651523302000803</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0006869858897287615</v>
+        <v>0.005721392854920959</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5107849784097509</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1208408877184534</v>
+        <v>0.0261629318626919</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7427710473407336</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6899974395292132</v>
+        <v>0.759083518170657</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001576835394499011</v>
+        <v>0.001641646115863801</v>
       </c>
       <c r="S11" t="n">
-        <v>84.14685816172103</v>
+        <v>82.55862437907493</v>
       </c>
       <c r="T11" t="n">
-        <v>77.83410764668251</v>
+        <v>78.01600710031857</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1041537739430028</v>
+        <v>0.1041114827745788</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01769860451170038</v>
+        <v>-0.01262328590299245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5081355806786624</v>
+        <v>0.9707418635441214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0001386411369153414</v>
+        <v>0.9978548208724242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01116604245096595</v>
+        <v>0.00266182149983908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6380289743934386</v>
+        <v>0.001986129439967736</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006694208397712653</v>
+        <v>0.7580036238832409</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1205569480795289</v>
+        <v>0.1813685104434353</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002985875395937132</v>
+        <v>0.02287724224729159</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001160188295854989</v>
+        <v>0.002276937764549282</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001821261873766117</v>
+        <v>0.0007945226149803087</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008716469404954984</v>
+        <v>0.004794329217035528</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03104266635268067</v>
+        <v>0.6948417688012285</v>
       </c>
       <c r="L12" t="n">
-        <v>0.955032864929148</v>
+        <v>0.9139186621902188</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2703550306826669</v>
+        <v>0.3929588996439589</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6619426845920284</v>
+        <v>0.8369311628669979</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0690588072587566</v>
+        <v>0.1065233418216934</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1198396378616625</v>
+        <v>0.03829331557976126</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7021516028927853</v>
+        <v>0.7591224938019201</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001530462214731311</v>
+        <v>0.00184877628020532</v>
       </c>
       <c r="S12" t="n">
-        <v>83.94617952148656</v>
+        <v>83.93729747702756</v>
       </c>
       <c r="T12" t="n">
-        <v>78.09730546714243</v>
+        <v>77.74581683250172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1042665977733865</v>
+        <v>0.1042087452640795</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.02215522229313626</v>
+        <v>0.01212512255501894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.97789566373711</v>
+        <v>0.9976061227451295</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7727939845602764</v>
+        <v>0.9868244609334209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04312033054807937</v>
+        <v>0.0624051752077312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5240966362764188</v>
+        <v>0.09188807757383274</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4409185736334871</v>
+        <v>0.686893583052106</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05748833470216189</v>
+        <v>0.287372175194275</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04247859820968548</v>
+        <v>0.0158496004440256</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002266416938062362</v>
+        <v>0.001740648602833291</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000153388052256968</v>
+        <v>0.0004685931111171939</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007068973190032779</v>
+        <v>0.002874511662560029</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7828431778884292</v>
+        <v>0.2706114188058867</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9530508318568396</v>
+        <v>0.6492447610587448</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3700704203664497</v>
+        <v>0.4573059190957133</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8004332223545295</v>
+        <v>0.9009919837968227</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0336011876635534</v>
+        <v>0.09564632812562189</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3095505166380281</v>
+        <v>0.3907549531682382</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7060101439770081</v>
+        <v>0.7603418793698339</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0015586044376984</v>
+        <v>0.001786216198061634</v>
       </c>
       <c r="S13" t="n">
-        <v>83.92699292102255</v>
+        <v>84.10961780384331</v>
       </c>
       <c r="T13" t="n">
-        <v>77.85934463180199</v>
+        <v>77.78471012754166</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1042457510826466</v>
+        <v>0.1041071451599082</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01993864343117707</v>
+        <v>-0.01113077012835965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9956685307625551</v>
+        <v>0.2048079448406553</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00247194912244153</v>
+        <v>0.1386187639924599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0008060712593945182</v>
+        <v>0.02111508311972767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8896292060019271</v>
+        <v>0.1584565667338085</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01038722926529102</v>
+        <v>0.9914116977301652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1330290793650665</v>
+        <v>0.1611654669097312</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05941096329070687</v>
+        <v>0.003017387170479967</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002701740937632272</v>
+        <v>0.002466824437254337</v>
       </c>
       <c r="I14" t="n">
-        <v>5.474829735730829e-05</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0009883799999378501</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02826242923706007</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9560172613712919</v>
+        <v>0.09651523302000803</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3648398592142058</v>
+        <v>0.005721392854920959</v>
       </c>
       <c r="N14" t="n">
-        <v>0.629727302569024</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O14" t="n">
-        <v>7.865640027162474e-05</v>
+        <v>0.0261629318626919</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1467468624347098</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7073809376424809</v>
+        <v>0.7606701751712212</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001525281448801565</v>
+        <v>0.001786473784000444</v>
       </c>
       <c r="S14" t="n">
-        <v>84.51472816737095</v>
+        <v>84.11962322563465</v>
       </c>
       <c r="T14" t="n">
-        <v>78.27403242919436</v>
+        <v>77.78360431870595</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1039465674847647</v>
+        <v>0.1041114883257387</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.02685413213650727</v>
+        <v>-0.01262328590299232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2314701714963803</v>
+        <v>0.0913580459571276</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7361870652112853</v>
+        <v>0.1095555084310132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2043120511753952</v>
+        <v>0.001635464585553295</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1328519974208679</v>
+        <v>0.001045444217851674</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4132930284604723</v>
+        <v>0.9734292803024099</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05155575501233563</v>
+        <v>0.1612713339550498</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008859833043918363</v>
+        <v>0.002644022236101469</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000367192288817984</v>
+        <v>0.002306675814137987</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001580317400683509</v>
+        <v>8.112104069406961e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>9.749163182235219e-05</v>
+        <v>0.000261243228770568</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002084530987297079</v>
+        <v>0.3645539575373399</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9321391147116561</v>
+        <v>0.0685174858140955</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001235546861873471</v>
+        <v>0.003179959823122725</v>
       </c>
       <c r="N15" t="n">
-        <v>0.000375084719987033</v>
+        <v>7.776069587557273e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04310961877691029</v>
+        <v>0.006503500060524026</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1096519583452301</v>
+        <v>0.4044971210500384</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7079023404203378</v>
+        <v>0.7626748260388314</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001576864059662412</v>
+        <v>0.001841260284655119</v>
       </c>
       <c r="S15" t="n">
-        <v>84.09078244273276</v>
+        <v>84.02796612872551</v>
       </c>
       <c r="T15" t="n">
-        <v>77.82697422103041</v>
+        <v>77.72743796215164</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1039213559551943</v>
+        <v>0.1040155963559392</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0171997803544713</v>
+        <v>-0.00767054813792014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9951570131242832</v>
+        <v>0.2130753062021542</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9206900480174982</v>
+        <v>0.9722835450611659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02165124123462321</v>
+        <v>0.002354044698222733</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07000200428785003</v>
+        <v>0.5745864747817578</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4731393409498499</v>
+        <v>0.142526382536523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4351699990650005</v>
+        <v>0.1681495422041058</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05874049096020616</v>
+        <v>0.02682983127333458</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003592985659277446</v>
+        <v>0.00284466228487679</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009360933301682747</v>
+        <v>0.000873986830980025</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001059597134856898</v>
+        <v>0.005126160040266779</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5109587555379219</v>
+        <v>0.2767099888367058</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9858286811466004</v>
+        <v>0.6625212778650752</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01818245391942335</v>
+        <v>0.3522057433826407</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1252215881123458</v>
+        <v>0.8737571696204399</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04353233378181129</v>
+        <v>0.002775310367998947</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5602490478650015</v>
+        <v>0.02028435565697183</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7150724580703848</v>
+        <v>0.7649673234047814</v>
       </c>
       <c r="R16" t="n">
-        <v>0.00152507450139941</v>
+        <v>0.001845511207188116</v>
       </c>
       <c r="S16" t="n">
-        <v>84.33868233014739</v>
+        <v>84.09303973856207</v>
       </c>
       <c r="T16" t="n">
-        <v>78.35951348470836</v>
+        <v>77.7121560753064</v>
       </c>
       <c r="U16" t="n">
-        <v>0.104293082633713</v>
+        <v>0.1042446785389436</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.01342740679246105</v>
+        <v>-0.04731420603818551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9578621999279228</v>
+        <v>0.9996427804863662</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8066839299086037</v>
+        <v>0.9945976313414387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7672198365050372</v>
+        <v>0.00254939367255247</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8231085311112281</v>
+        <v>0.1845931213493054</v>
       </c>
       <c r="E17" t="n">
-        <v>0.409840468361252</v>
+        <v>0.6586804835462003</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05269746868648736</v>
+        <v>0.2566804643954365</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008859705584510151</v>
+        <v>0.06825222809184578</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003055779890836959</v>
+        <v>0.01037137408336203</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004878642695284278</v>
+        <v>0.0198075025347929</v>
       </c>
       <c r="J17" t="n">
-        <v>2.693790321615972e-05</v>
+        <v>0.00194750537336977</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002084530987297079</v>
+        <v>0.6950271273351482</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9324745265225514</v>
+        <v>0.6727254741167984</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001233701176470403</v>
+        <v>0.4162196929238312</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2667592957774184</v>
+        <v>0.8713520423884407</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04310961877691029</v>
+        <v>0.002102264983109808</v>
       </c>
       <c r="P17" t="n">
-        <v>0.555845642946704</v>
+        <v>0.1216623004714649</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7201858360409149</v>
+        <v>0.7676739695741428</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001579147864986314</v>
+        <v>0.001824545349887233</v>
       </c>
       <c r="S17" t="n">
-        <v>83.67513799626906</v>
+        <v>84.03633150547559</v>
       </c>
       <c r="T17" t="n">
-        <v>77.89109983267559</v>
+        <v>77.74028020123363</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1040291757350073</v>
+        <v>0.1050975516536833</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.02279188079676272</v>
+        <v>0.004204036278978696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8967422008801612</v>
+        <v>0.4502323895813028</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8679777966354881</v>
+        <v>0.2300866792114431</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6584198251386901</v>
+        <v>0.006892206446149823</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9062098692285488</v>
+        <v>0.01249995527785497</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4188103894676234</v>
+        <v>0.2327422403830495</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2774808991138768</v>
+        <v>0.1544807588296993</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001672876681462697</v>
+        <v>0.004246262813741028</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003011466135783021</v>
+        <v>0.002378668591484204</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001194056077356323</v>
+        <v>0.0001506270770732736</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002567735559227517</v>
+        <v>0.0003429237736655285</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003454275853844613</v>
+        <v>0.6173614873119141</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9360441081578352</v>
+        <v>0.156932686083305</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00149376662281139</v>
+        <v>0.3853195206269112</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6375683674089987</v>
+        <v>0.001234818246404739</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05926836023041617</v>
+        <v>0.02302814477443636</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5744378322533874</v>
+        <v>0.4054659017990044</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7217036645340899</v>
+        <v>0.7690277666996771</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001652312548845909</v>
+        <v>0.001591552072534143</v>
       </c>
       <c r="S18" t="n">
-        <v>83.55917006173959</v>
+        <v>84.16109653329316</v>
       </c>
       <c r="T18" t="n">
-        <v>77.8535265575089</v>
+        <v>78.13117719310044</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1041070705944056</v>
+        <v>0.1040262860395306</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.03322783469366559</v>
+        <v>-0.00881699742603171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9253302038037498</v>
+        <v>0.9972628822351025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04510480848683279</v>
+        <v>0.9715678913638233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01058768926600678</v>
+        <v>0.0009698493851880334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7152161639074397</v>
+        <v>0.1671144706842216</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01030473216518274</v>
+        <v>0.767605236745042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08044201185337731</v>
+        <v>0.1572112600070898</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001450280524184451</v>
+        <v>0.01928953595929797</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004705100214629232</v>
+        <v>0.0009156812539442554</v>
       </c>
       <c r="I19" t="n">
-        <v>2.87541504283045e-05</v>
+        <v>6.508769010226713e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009310932000247737</v>
+        <v>0.002111806705302676</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3952645877648839</v>
+        <v>0.7022016484574731</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9903649955788173</v>
+        <v>0.6736130588733502</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3036653116512711</v>
+        <v>0.4149201886092161</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6600819415937006</v>
+        <v>0.8730971584282827</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0008435576845192347</v>
+        <v>0.02354016822916621</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1203309135489098</v>
+        <v>0.1585172691357</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7225940428580706</v>
+        <v>0.7720134527886606</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001602897359699853</v>
+        <v>0.001623682504963911</v>
       </c>
       <c r="S19" t="n">
-        <v>83.55804223446184</v>
+        <v>83.47077249581012</v>
       </c>
       <c r="T19" t="n">
-        <v>78.02468570767839</v>
+        <v>77.95363196239309</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1042573721542909</v>
+        <v>0.10403435650084</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.01967573600472102</v>
+        <v>0.007928508562651385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9929214938231776</v>
+        <v>0.2225839342784531</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02980957448151272</v>
+        <v>0.1045600291589555</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1041593707043131</v>
+        <v>0.01715121757615086</v>
       </c>
       <c r="D20" t="n">
-        <v>0.917500746016876</v>
+        <v>0.1836429565877132</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006849394331016362</v>
+        <v>0.8321754701518241</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1062885274464563</v>
+        <v>0.1591938860435425</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009936311353287139</v>
+        <v>0.002695658593596762</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001231192714778491</v>
+        <v>0.002304894208212406</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0005065494904030704</v>
+        <v>4.100332163496166e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007001018735278358</v>
+        <v>0.002657034798171323</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2884293801511487</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9522178587358826</v>
+        <v>0.1025078955355166</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2143104092224856</v>
+        <v>0.003379105230614819</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5897869252593783</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1234030708704223</v>
+        <v>0.2382897838843782</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1326427905292664</v>
+        <v>0.4105141419261856</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7272120851598748</v>
+        <v>0.7752072686552136</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001604316527389695</v>
+        <v>0.001593872060939571</v>
       </c>
       <c r="S20" t="n">
-        <v>83.89795016054168</v>
+        <v>83.0668764527004</v>
       </c>
       <c r="T20" t="n">
-        <v>77.92418505831128</v>
+        <v>78.00484616492851</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1042183084906585</v>
+        <v>0.1041042178482513</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.02925822672695364</v>
+        <v>-0.01435857572738902</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.881176075455669</v>
+        <v>0.9710608921652015</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8708443916361164</v>
+        <v>0.9945957742132669</v>
       </c>
       <c r="C21" t="n">
-        <v>0.658021204236275</v>
+        <v>0.00258207031782913</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9755899932339043</v>
+        <v>0.1789220119364469</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4347282792415892</v>
+        <v>0.4828679489194568</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2774808991138768</v>
+        <v>0.1724479455431722</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01267950264653976</v>
+        <v>0.04654902767092579</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008897624062181097</v>
+        <v>0.01984244777401649</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002130449455703767</v>
+        <v>0.000128081790813945</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002565241269215824</v>
+        <v>0.0009245357365755436</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5375212513182304</v>
+        <v>0.6909600760303112</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9957708171896684</v>
+        <v>0.6626582891435033</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001499895765283536</v>
+        <v>0.3960207170520302</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4666668470361263</v>
+        <v>0.844561261334853</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05926157340951822</v>
+        <v>0.0151623480894439</v>
       </c>
       <c r="P21" t="n">
-        <v>0.60466582653874</v>
+        <v>0.03377475239168756</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309638898378102</v>
+        <v>0.7755485469178082</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001937194975872601</v>
+        <v>0.001557040799707409</v>
       </c>
       <c r="S21" t="n">
-        <v>83.25011819357576</v>
+        <v>85.14886951571417</v>
       </c>
       <c r="T21" t="n">
-        <v>77.9595302261794</v>
+        <v>77.72322689484442</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1043258777533925</v>
+        <v>0.1046838758251463</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.02634136661011149</v>
+        <v>0.01930255489296709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9578366146417503</v>
+        <v>0.05635650193763617</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9700830328655105</v>
+        <v>0.3945167850993891</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1250112519711804</v>
+        <v>0.02285805709107023</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04072256053094125</v>
+        <v>0.01496173108468449</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4221389680696805</v>
+        <v>0.0007871368441035454</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2506316248118531</v>
+        <v>0.09169775944766423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1546066287548529</v>
+        <v>0.004717801636902445</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001180644879657621</v>
+        <v>0.0003500138474022609</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005749799237166</v>
+        <v>0.0003420022494955017</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002417256062082812</v>
+        <v>0.0002672370136501587</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5704034364317609</v>
+        <v>0.6840762885092037</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9714139089716889</v>
+        <v>0.7396916973110146</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001520117060378747</v>
+        <v>0.03405208175945126</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05060940413700364</v>
+        <v>0.001252947359746273</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1218957009004656</v>
+        <v>0.1032097693606002</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7700098072928264</v>
+        <v>0.9947405599441841</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7314722694895843</v>
+        <v>0.7815889866804797</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001633638312665291</v>
+        <v>0.001543275063038143</v>
       </c>
       <c r="S22" t="n">
-        <v>83.91089161543206</v>
+        <v>85.71360465718598</v>
       </c>
       <c r="T22" t="n">
-        <v>77.90808544589035</v>
+        <v>78.38723085619831</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1040512627286911</v>
+        <v>0.1039566852882371</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.01389050039916279</v>
+        <v>-0.01770383979842576</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9425880326134753</v>
+        <v>0.1915057635978298</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7774176323083928</v>
+        <v>0.1217425186611182</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006636275648438926</v>
+        <v>0.1755176589550417</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5671309744159831</v>
+        <v>0.192985689804352</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4023990709692064</v>
+        <v>0.6525463292265969</v>
       </c>
       <c r="F23" t="n">
-        <v>0.277266971897832</v>
+        <v>0.1546538503420993</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008097576222903117</v>
+        <v>0.004655982046050882</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001222342745480133</v>
+        <v>0.001523427245886068</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0005245336383137053</v>
+        <v>0.0003028822734399431</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0009489534665729121</v>
+        <v>0.0005571473255483675</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004955786247658855</v>
+        <v>0.6296368448856653</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9461014726807007</v>
+        <v>0.6870133081389054</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003542274675014494</v>
+        <v>0.005963182191837904</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03250943690132396</v>
+        <v>0.02051937962985332</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.2382897838843782</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2763783632022598</v>
+        <v>0.04543523832673984</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7352473577793535</v>
+        <v>0.7824509573747821</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001598030009452392</v>
+        <v>0.001809170078516021</v>
       </c>
       <c r="S23" t="n">
-        <v>83.77925524497755</v>
+        <v>84.06538828255664</v>
       </c>
       <c r="T23" t="n">
-        <v>77.96607608958742</v>
+        <v>77.73560956093438</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1039971955260417</v>
+        <v>0.1040085340469482</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.0231967265002694</v>
+        <v>-0.01187499523528651</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9578366146417503</v>
+        <v>0.9966622483883234</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9630222049020982</v>
+        <v>0.9733834998420422</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1250112519711804</v>
+        <v>0.04043173273081592</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9193148069552969</v>
+        <v>0.1991546118917006</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4221389680696805</v>
+        <v>0.6538094253833204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2328783561885051</v>
+        <v>0.3909540334519953</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1546066287548529</v>
+        <v>0.07172791221868731</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0002096283391568163</v>
+        <v>0.0002564155686179057</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0005749799237166</v>
+        <v>3.893999127716169e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002449144772077569</v>
+        <v>0.0007386226417970813</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5365212435590465</v>
+        <v>0.2670793981874372</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9947404182092207</v>
+        <v>0.7786650262449402</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002674028069471654</v>
+        <v>0.4157509711714087</v>
       </c>
       <c r="N24" t="n">
-        <v>0.259190365758876</v>
+        <v>0.8812219133280835</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1187872255561486</v>
+        <v>0.004672246341069574</v>
       </c>
       <c r="P24" t="n">
-        <v>0.770164717356946</v>
+        <v>0.4124656037408206</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7454103881229092</v>
+        <v>0.7844670500016824</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001748786179335559</v>
+        <v>0.001867133403602703</v>
       </c>
       <c r="S24" t="n">
-        <v>83.49882567396196</v>
+        <v>83.92843928541222</v>
       </c>
       <c r="T24" t="n">
-        <v>77.93922439480581</v>
+        <v>77.72556349812299</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1040168431798797</v>
+        <v>0.1039592940249949</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.02322303322760397</v>
+        <v>-0.01808799249119142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5268874846768359</v>
+        <v>0.9976061227451295</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9634717189165517</v>
+        <v>0.9868244609334209</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7146509146600665</v>
+        <v>0.06347188239342547</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9409843126819898</v>
+        <v>0.1801778929530848</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4702228592620823</v>
+        <v>0.686893583052106</v>
       </c>
       <c r="F25" t="n">
-        <v>0.267072159423909</v>
+        <v>0.287372175194275</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03128649526174927</v>
+        <v>0.01621536419280567</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0002147751388881536</v>
+        <v>0.001740648602833291</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004384603032283466</v>
+        <v>0.0004780041937577441</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001199076448845985</v>
+        <v>0.0008087054179301413</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5330655192705711</v>
+        <v>0.2706114188058867</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9961201127148126</v>
+        <v>0.6527984814445367</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001954382156688052</v>
+        <v>0.4071704232550422</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1384244039016465</v>
+        <v>0.9009919837968227</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1208122870019511</v>
+        <v>0.09564632812562189</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6331358057675853</v>
+        <v>0.02010669256764602</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7460686200599784</v>
+        <v>0.7846107577036624</v>
       </c>
       <c r="R25" t="n">
-        <v>0.001850815097370346</v>
+        <v>0.001799138317621764</v>
       </c>
       <c r="S25" t="n">
-        <v>83.15694403762109</v>
+        <v>83.99049484871048</v>
       </c>
       <c r="T25" t="n">
-        <v>78.06427424238187</v>
+        <v>77.74329920722019</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1039663333197539</v>
+        <v>0.1040319904731291</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.0229404574174867</v>
+        <v>0.001520956181133161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9907713433670658</v>
+        <v>0.9812674432850605</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7793443497482655</v>
+        <v>0.992845582563692</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01773721309209902</v>
+        <v>0.03827625587493344</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1073360713980734</v>
+        <v>0.1886670236759351</v>
       </c>
       <c r="E26" t="n">
-        <v>0.253106552335733</v>
+        <v>0.6806305379691434</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1642836833195596</v>
+        <v>0.1629325872277955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002185412348021699</v>
+        <v>0.02291530678337964</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0003016959789084279</v>
+        <v>0.01019942911379838</v>
       </c>
       <c r="I26" t="n">
-        <v>1.267869582789685e-05</v>
+        <v>0.0001244137776286887</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001115137397563093</v>
+        <v>0.00182138583289093</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04476645484911884</v>
+        <v>0.6950271273351482</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8982725313800651</v>
+        <v>0.7860598344375873</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001473015100194082</v>
+        <v>0.4192214771782058</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04013127304698707</v>
+        <v>0.8984426495584003</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05943323736072707</v>
+        <v>0.002102264983109808</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06519268143068516</v>
+        <v>0.03953308011017359</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.747022200669779</v>
+        <v>0.7865843746042954</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001842737061088724</v>
+        <v>0.001894409295414664</v>
       </c>
       <c r="S26" t="n">
-        <v>83.16332399435197</v>
+        <v>83.97147096985722</v>
       </c>
       <c r="T26" t="n">
-        <v>78.07033228712783</v>
+        <v>77.76383198633634</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1039141507994053</v>
+        <v>0.1043647303902432</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.01792929137816044</v>
+        <v>0.01230406311875944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5237308319132929</v>
+        <v>0.0956651468868138</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8693722328975042</v>
+        <v>0.1923124130010125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7129465296535134</v>
+        <v>0.02178797212132776</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9409843126819898</v>
+        <v>0.185098790553375</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4166755365528346</v>
+        <v>0.9696391880349106</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2410280641989796</v>
+        <v>0.121559870542541</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02899535248690645</v>
+        <v>0.01696640758522286</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0003401196273396367</v>
+        <v>0.002301130389069125</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0005899201561964891</v>
+        <v>1.291698452455861e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>2.781852114633982e-05</v>
+        <v>0.0007211416960981065</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5191248624382016</v>
+        <v>0.7061108113503614</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9961969615400323</v>
+        <v>0.03947433300766029</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001502983199170864</v>
+        <v>0.003379105230614819</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2618251108740804</v>
+        <v>0.001249649125475395</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1164602591277406</v>
+        <v>0.01960173679009105</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7756692861853726</v>
+        <v>0.4100723717871997</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7473417171307947</v>
+        <v>0.7878130863661266</v>
       </c>
       <c r="R27" t="n">
-        <v>0.001549677030199074</v>
+        <v>0.001879111250508031</v>
       </c>
       <c r="S27" t="n">
-        <v>84.27718758605936</v>
+        <v>83.99565615885363</v>
       </c>
       <c r="T27" t="n">
-        <v>77.97932268117509</v>
+        <v>77.76383198630839</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1039335860567003</v>
+        <v>0.1040323389626121</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.02051429440456727</v>
+        <v>-0.009448941772749679</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8849651463941723</v>
+        <v>0.07021638378022077</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03452861176938515</v>
+        <v>0.08586835845467346</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0215904955993114</v>
+        <v>0.04727725537338391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5814715668617589</v>
+        <v>0.00348144036914326</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3585106304142965</v>
+        <v>0.9196759836160825</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1453603524656173</v>
+        <v>0.1138953019468322</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007008993065574525</v>
+        <v>0.004140693314861305</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003186009623251577</v>
+        <v>0.002475660306870013</v>
       </c>
       <c r="I28" t="n">
-        <v>2.094373775136177e-05</v>
+        <v>0.00112477936182811</v>
       </c>
       <c r="J28" t="n">
-        <v>0.001069520714547517</v>
+        <v>0.001339382497411392</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01786380782399768</v>
+        <v>0.6521970234433152</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9541770840086486</v>
+        <v>0.04961903048189054</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001531130210055716</v>
+        <v>0.1473640784560798</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02110202158787137</v>
+        <v>0.001064970062585879</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0474060724163147</v>
+        <v>0.0229818731286486</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6086699332520299</v>
+        <v>0.1823494746303974</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7487242336732746</v>
+        <v>0.7879234144222643</v>
       </c>
       <c r="R28" t="n">
-        <v>0.001837234907017493</v>
+        <v>0.001533986821864812</v>
       </c>
       <c r="S28" t="n">
-        <v>83.39828629133476</v>
+        <v>85.76345356673045</v>
       </c>
       <c r="T28" t="n">
-        <v>77.97269097555149</v>
+        <v>78.39444217919242</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1040549914263946</v>
+        <v>0.104101903939764</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.02732261332262879</v>
+        <v>-0.007370891003537359</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9961556372527142</v>
+        <v>0.08122776326323283</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8523269999509911</v>
+        <v>0.2019467967723856</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6857150430753803</v>
+        <v>0.02049428230340843</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9627530834079908</v>
+        <v>0.003233679612806326</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4367915454826155</v>
+        <v>0.01088154837221371</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08460839795896817</v>
+        <v>0.09351028818481492</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005964706117129709</v>
+        <v>0.005927733634847221</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0003065135312585431</v>
+        <v>0.0003500138474022609</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005253560679166078</v>
+        <v>3.344046543502611e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>0.002382296972369404</v>
+        <v>0.0002666505748870908</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5457044873580228</v>
+        <v>0.2014460760248997</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9443240977146365</v>
+        <v>0.6737215274554496</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003541546585109496</v>
+        <v>0.01187112178887589</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5031966790590146</v>
+        <v>0.001235059940850196</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.02112822523258701</v>
       </c>
       <c r="P29" t="n">
-        <v>0.638628841124217</v>
+        <v>0.9947405599441841</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7510344910317964</v>
+        <v>0.7900140444271645</v>
       </c>
       <c r="R29" t="n">
-        <v>0.001945004896257693</v>
+        <v>0.001666152855305138</v>
       </c>
       <c r="S29" t="n">
-        <v>83.19700499505387</v>
+        <v>83.74759656369272</v>
       </c>
       <c r="T29" t="n">
-        <v>78.14468859776862</v>
+        <v>77.91361242478413</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1040161355159393</v>
+        <v>0.1039454293863353</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.02867297770900509</v>
+        <v>-0.01739375536259239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8658663872941362</v>
+        <v>0.9997545265472683</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9598822916175082</v>
+        <v>0.9946958379551686</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6133707378621079</v>
+        <v>0.01635376463052512</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5971552187291269</v>
+        <v>0.1845931213493054</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4900395779368741</v>
+        <v>0.7161561720641751</v>
       </c>
       <c r="F30" t="n">
-        <v>0.388621708003019</v>
+        <v>0.1667280827615864</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02939218380483351</v>
+        <v>0.001080042545490552</v>
       </c>
       <c r="H30" t="n">
-        <v>0.000364402731955352</v>
+        <v>0.01037137408336203</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0005185773310819924</v>
+        <v>0.000717027946900259</v>
       </c>
       <c r="J30" t="n">
-        <v>0.009878397495674698</v>
+        <v>0.0006254587178613786</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9538782303196769</v>
+        <v>0.3493130755510269</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9895555011489829</v>
+        <v>0.06649728697832558</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2241621266426279</v>
+        <v>0.4162196929238312</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5580037047783959</v>
+        <v>0.05425989312505325</v>
       </c>
       <c r="O30" t="n">
-        <v>0.7948331485865914</v>
+        <v>0.001225355555146521</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8248187662508573</v>
+        <v>0.1216623004714649</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7526607914120801</v>
+        <v>0.791804352424599</v>
       </c>
       <c r="R30" t="n">
-        <v>0.001680578500430087</v>
+        <v>0.001902661490856701</v>
       </c>
       <c r="S30" t="n">
-        <v>83.46690615722483</v>
+        <v>83.95151438678275</v>
       </c>
       <c r="T30" t="n">
-        <v>78.20805593084665</v>
+        <v>77.759210449446</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1042922916138656</v>
+        <v>0.1043488710347908</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.01785723907486227</v>
+        <v>-0.009579207593712578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8819528654043959</v>
+        <v>0.2048079448406553</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03452861176938515</v>
+        <v>0.3908863372910146</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6241685035185505</v>
+        <v>0.009958699344607296</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5814715668617589</v>
+        <v>0.1584565667338085</v>
       </c>
       <c r="E31" t="n">
-        <v>0.358899882960555</v>
+        <v>0.9927388755823948</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1453603524656173</v>
+        <v>0.1606864932572764</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007008993065574525</v>
+        <v>0.003017387170479967</v>
       </c>
       <c r="H31" t="n">
-        <v>0.009117919983266869</v>
+        <v>0.002466824437254337</v>
       </c>
       <c r="I31" t="n">
-        <v>3.732431170200938e-05</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J31" t="n">
-        <v>0.001076897816619525</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01786380782399768</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9818110117933503</v>
+        <v>0.09651523302000803</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001498952886425268</v>
+        <v>0.005721392854920959</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3569021089885744</v>
+        <v>2.55679278068023e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05858416819929448</v>
+        <v>0.02887141553608591</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6086699332520299</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7635237879160723</v>
+        <v>0.7939528817191579</v>
       </c>
       <c r="R31" t="n">
-        <v>0.001630110176567898</v>
+        <v>0.001860045815201522</v>
       </c>
       <c r="S31" t="n">
-        <v>84.16398855035466</v>
+        <v>84.02880939954719</v>
       </c>
       <c r="T31" t="n">
-        <v>77.96930056928488</v>
+        <v>77.74899909998518</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1042728904328848</v>
+        <v>0.1041114985028652</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.01923577504449472</v>
+        <v>-0.01260707171885109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9072595532659977</v>
+        <v>0.0913580459571276</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0001390839319416032</v>
+        <v>0.9978293440129512</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0102304821735171</v>
+        <v>0.163021918108588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7151982183792659</v>
+        <v>0.005596673337543878</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006694208397712653</v>
+        <v>0.9737175553156849</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08044201185337731</v>
+        <v>0.1612713339550498</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001022550505069188</v>
+        <v>0.02941661393527245</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0003540409760465703</v>
+        <v>0.002515264305785578</v>
       </c>
       <c r="I32" t="n">
-        <v>2.87541504283045e-05</v>
+        <v>8.112104069406961e-06</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009184006285019945</v>
+        <v>0.000261243228770568</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3952645877648839</v>
+        <v>0.3665395271335425</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9537646621794974</v>
+        <v>0.0685174858140955</v>
       </c>
       <c r="M32" t="n">
-        <v>0.332449497505555</v>
+        <v>0.003179959823122725</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6600819415937006</v>
+        <v>5.57601518576499e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0008432756472326553</v>
+        <v>0.02305076864327818</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1198396378616625</v>
+        <v>0.4256484093302137</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7663678669743321</v>
+        <v>0.7951464937185677</v>
       </c>
       <c r="R32" t="n">
-        <v>0.001786602379344946</v>
+        <v>0.001773650895547022</v>
       </c>
       <c r="S32" t="n">
-        <v>83.37533191080367</v>
+        <v>84.21904536520802</v>
       </c>
       <c r="T32" t="n">
-        <v>78.03362990366712</v>
+        <v>77.76267483053775</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1042484523233072</v>
+        <v>0.1040232174816939</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.02101800431746167</v>
+        <v>-0.007870911230075373</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9765441115023963</v>
+        <v>0.4640771103169853</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7870269900489726</v>
+        <v>0.245129185187034</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02266640204057857</v>
+        <v>0.002879790912126021</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5880319956546538</v>
+        <v>0.007372636509372102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4404192729503787</v>
+        <v>0.7154189902190234</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1965777093074866</v>
+        <v>0.1363435412741613</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03703775443902128</v>
+        <v>0.02109462168582422</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003331013999913192</v>
+        <v>0.002324533717022053</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0006567891821391202</v>
+        <v>0.001853671516932816</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0009961903694324552</v>
+        <v>0.000958614236346049</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9550237877990976</v>
+        <v>0.6513017739849648</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9895965202852161</v>
+        <v>0.58514111884991</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3107469826240165</v>
+        <v>0.008690935483492377</v>
       </c>
       <c r="N33" t="n">
-        <v>0.7728880967875382</v>
+        <v>0.04958915058389607</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1160339105297769</v>
+        <v>0.01639029311782139</v>
       </c>
       <c r="P33" t="n">
-        <v>0.6115471221515746</v>
+        <v>0.1823231659597599</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7676764155988539</v>
+        <v>0.7968788497579645</v>
       </c>
       <c r="R33" t="n">
-        <v>0.001688025022765167</v>
+        <v>0.001825774193874046</v>
       </c>
       <c r="S33" t="n">
-        <v>83.43679369567782</v>
+        <v>83.40045321279247</v>
       </c>
       <c r="T33" t="n">
-        <v>78.17512325114427</v>
+        <v>77.9349644300038</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1040808498067909</v>
+        <v>0.1041090859070907</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.02206593710915079</v>
+        <v>-0.01616480079947886</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8921391529144086</v>
+        <v>0.4359511152462828</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9133630559366164</v>
+        <v>0.9771840523012501</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02500155900979383</v>
+        <v>0.0231559385412649</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8776129851294148</v>
+        <v>0.52482717978129</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3475652780635771</v>
+        <v>0.1392320322003985</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1110872138845259</v>
+        <v>0.2412675506217</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006145518299959674</v>
+        <v>0.02272696349768496</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0006971417254575121</v>
+        <v>0.001656604255192068</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001314218508686501</v>
+        <v>0.0002698324832849245</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01067278803032844</v>
+        <v>0.005055115895626078</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5156582282900894</v>
+        <v>0.320401928571052</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9645047573193433</v>
+        <v>0.6610182635136381</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0006635102271240784</v>
+        <v>0.412737950653925</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6257828903857787</v>
+        <v>0.8578558319825116</v>
       </c>
       <c r="O34" t="n">
-        <v>0.04718739452577189</v>
+        <v>0.0174307800428759</v>
       </c>
       <c r="P34" t="n">
-        <v>0.6310550882944891</v>
+        <v>0.04090605899524308</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7689154740105709</v>
+        <v>0.798909203530465</v>
       </c>
       <c r="R34" t="n">
-        <v>0.001528958830741095</v>
+        <v>0.001576793143307419</v>
       </c>
       <c r="S34" t="n">
-        <v>84.3686802403536</v>
+        <v>84.52992927861848</v>
       </c>
       <c r="T34" t="n">
-        <v>78.06200691266093</v>
+        <v>77.95654522182313</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1043193088136236</v>
+        <v>0.1041765115288946</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.03133629864341891</v>
+        <v>0.00431607956686636</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9765441115023963</v>
+        <v>0.9242157267139819</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8488139374813137</v>
+        <v>0.9400591124219733</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01771991073906784</v>
+        <v>0.1374333886075845</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1591413778877761</v>
+        <v>0.1761235246910772</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4404192729503787</v>
+        <v>0.2664389828696706</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1187971511524863</v>
+        <v>0.1701760610343823</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001737174879813716</v>
+        <v>0.06789279092639361</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0004589030903293205</v>
+        <v>0.003847823662258248</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0006567891821391202</v>
+        <v>0.0005731420857118272</v>
       </c>
       <c r="J35" t="n">
-        <v>7.828996094490009e-05</v>
+        <v>0.0004145035331141831</v>
       </c>
       <c r="K35" t="n">
-        <v>0.95389133967269</v>
+        <v>0.6988631318512337</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9486969042910237</v>
+        <v>0.9295531770759737</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2403459354396759</v>
+        <v>0.1481130195790611</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05698814135792424</v>
+        <v>0.9010436543662755</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1117699047771396</v>
+        <v>0.162743288761912</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1562247354989849</v>
+        <v>0.3999869190359195</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7746465058370356</v>
+        <v>0.8010320721535144</v>
       </c>
       <c r="R35" t="n">
-        <v>0.00186486115865931</v>
+        <v>0.001768679726080944</v>
       </c>
       <c r="S35" t="n">
-        <v>83.26242539714056</v>
+        <v>84.25289106253541</v>
       </c>
       <c r="T35" t="n">
-        <v>78.05902346745489</v>
+        <v>77.78286471213799</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1039421951566343</v>
+        <v>0.1040979675505954</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.01823176611582628</v>
+        <v>-0.01019866684381866</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8793829483570937</v>
+        <v>0.836096393476496</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7870269900489726</v>
+        <v>0.9700017161095823</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02272511184647288</v>
+        <v>0.1623173775595435</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6184253291359494</v>
+        <v>0.2133062219509661</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4439223284583378</v>
+        <v>0.9286231194945582</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09212955838195303</v>
+        <v>0.1424622939985876</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1078217805074957</v>
+        <v>0.0291995194980499</v>
       </c>
       <c r="H36" t="n">
-        <v>0.003331013999913192</v>
+        <v>0.00248733350260865</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0006567891821391202</v>
+        <v>1.793655656357732e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002466844924846318</v>
+        <v>0.0004867448275301537</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8507712623072247</v>
+        <v>0.6554039516040385</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9887799693589384</v>
+        <v>0.02433021449801398</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1585204190259165</v>
+        <v>0.1515817613927794</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7481524550283282</v>
+        <v>0.04805434043410772</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1123323462713924</v>
+        <v>0.02302512231735463</v>
       </c>
       <c r="P36" t="n">
-        <v>0.3300552707320161</v>
+        <v>0.4249250615391524</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7789112389098191</v>
+        <v>0.8015172152563279</v>
       </c>
       <c r="R36" t="n">
-        <v>0.001923787981792384</v>
+        <v>0.001721120465777046</v>
       </c>
       <c r="S36" t="n">
-        <v>83.23610993233446</v>
+        <v>83.83631486948762</v>
       </c>
       <c r="T36" t="n">
-        <v>78.17771004237105</v>
+        <v>77.7993576653429</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1041347177191719</v>
+        <v>0.1040306242709968</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.01508390407980385</v>
+        <v>-0.004838163826710953</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5289437516190792</v>
+        <v>0.07164498201809802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9808438541907396</v>
+        <v>0.9948714458803556</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5967786134332093</v>
+        <v>0.0309328393837041</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8928527291827354</v>
+        <v>0.5335769530074135</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01058852124627486</v>
+        <v>0.002642941812416255</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1345778549732562</v>
+        <v>0.04276324897927958</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03903092787500542</v>
+        <v>0.02012141268655415</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001738207423214426</v>
+        <v>0.0007739396974975558</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001151863301670755</v>
+        <v>0.000126954972744265</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0009857601107027478</v>
+        <v>0.0004487024191655662</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04795171141964738</v>
+        <v>0.7062418634594343</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9842842321398044</v>
+        <v>0.7404828417573955</v>
       </c>
       <c r="M37" t="n">
-        <v>0.006868215133262467</v>
+        <v>0.006090347253924683</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2485470804413439</v>
+        <v>0.88436608370693</v>
       </c>
       <c r="O37" t="n">
-        <v>0.009486974446577978</v>
+        <v>0.01823569587747652</v>
       </c>
       <c r="P37" t="n">
-        <v>0.6371008515083317</v>
+        <v>0.1429438263675835</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7823386798725634</v>
+        <v>0.8033316060282657</v>
       </c>
       <c r="R37" t="n">
-        <v>0.001775347041440276</v>
+        <v>0.001734322207821923</v>
       </c>
       <c r="S37" t="n">
-        <v>83.45604194446264</v>
+        <v>83.75377241627731</v>
       </c>
       <c r="T37" t="n">
-        <v>78.13604324940226</v>
+        <v>77.84148591481495</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1040024297976889</v>
+        <v>0.103970899341573</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.02254662403043578</v>
+        <v>-0.05540633095920377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9925629419481088</v>
+        <v>0.9972622719181463</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8080336553429762</v>
+        <v>0.9975373454049901</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02270804113901007</v>
+        <v>0.0002526450976754972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5887645405770671</v>
+        <v>0.1775989356667069</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5735381762931125</v>
+        <v>0.4333384036670728</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07273069514714176</v>
+        <v>0.1724479455431722</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005798609035026861</v>
+        <v>0.04357908582747899</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0004657563816494229</v>
+        <v>0.01890509155237221</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0006473338020838616</v>
+        <v>0.0002905321422383208</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0007980513931946064</v>
+        <v>0.0008022100455653159</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8414959151695847</v>
+        <v>0.6909600760303112</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9898988228565697</v>
+        <v>0.7914442947649304</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2715579861266839</v>
+        <v>0.4061835327815587</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4920985048470291</v>
+        <v>0.7690629980581828</v>
       </c>
       <c r="O38" t="n">
-        <v>0.08153186947954452</v>
+        <v>0.1948562847116799</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1351348166289554</v>
+        <v>0.04017570374319464</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7849516455623359</v>
+        <v>0.8048369673031474</v>
       </c>
       <c r="R38" t="n">
-        <v>0.001827394078243977</v>
+        <v>0.0016177113223297</v>
       </c>
       <c r="S38" t="n">
-        <v>83.3042380738776</v>
+        <v>82.90114246493492</v>
       </c>
       <c r="T38" t="n">
-        <v>78.02409121109594</v>
+        <v>78.10885387214961</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1039684358657866</v>
+        <v>0.1046511511207076</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.01699606651348195</v>
+        <v>0.01646388268589794</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3492498780216401</v>
+        <v>0.07542030148727838</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00777666049381881</v>
+        <v>0.1980830147701235</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01057131384501413</v>
+        <v>0.04727725537338391</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7141485197181279</v>
+        <v>0.00348144036914326</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01648426767282871</v>
+        <v>0.9813664511059628</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08044201185337731</v>
+        <v>0.1545308126224065</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001450280524184451</v>
+        <v>0.00048426389612659</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001452025822275311</v>
+        <v>0.002466211580370665</v>
       </c>
       <c r="I39" t="n">
-        <v>3.469569409750577e-05</v>
+        <v>3.198033230368739e-05</v>
       </c>
       <c r="J39" t="n">
-        <v>2.766980291558398e-05</v>
+        <v>0.002702194318107409</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3952645877648839</v>
+        <v>0.6514794263010176</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9897619737255138</v>
+        <v>0.03970811130479291</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3037277456544366</v>
+        <v>0.005963013714330445</v>
       </c>
       <c r="N39" t="n">
-        <v>0.6483646005256827</v>
+        <v>0.001235436578920785</v>
       </c>
       <c r="O39" t="n">
-        <v>0.002792121309454172</v>
+        <v>0.0229818731286486</v>
       </c>
       <c r="P39" t="n">
-        <v>0.145703610918298</v>
+        <v>0.1823494746303974</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7871559232025139</v>
+        <v>0.8056007407043715</v>
       </c>
       <c r="R39" t="n">
-        <v>0.00195779162774224</v>
+        <v>0.001633960052436978</v>
       </c>
       <c r="S39" t="n">
-        <v>83.26360256318105</v>
+        <v>83.52547737413613</v>
       </c>
       <c r="T39" t="n">
-        <v>78.11960925710474</v>
+        <v>77.95809955427083</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1039538908965978</v>
+        <v>0.1041114254125931</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.0282125558404619</v>
+        <v>-0.00654084476577417</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9541041526397075</v>
+        <v>0.9707418635441214</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8523269999509911</v>
+        <v>0.9996822443938511</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6818976360150787</v>
+        <v>0.00266182149983908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9627530834079908</v>
+        <v>0.001986129439967736</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02459456624710005</v>
+        <v>0.7785792874615165</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08460839795896817</v>
+        <v>0.2109532732511566</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003083820612197891</v>
+        <v>0.02360197694295287</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001222342745480133</v>
+        <v>0.006002617581947333</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0005251844274448257</v>
+        <v>0.0007945226149803087</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002382296972369404</v>
+        <v>0.004745110926659522</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07639126257416366</v>
+        <v>0.6948417688012285</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9443240977146365</v>
+        <v>0.9134346057062172</v>
       </c>
       <c r="M40" t="n">
-        <v>0.003541546585109496</v>
+        <v>0.3929588996439589</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5009738943180737</v>
+        <v>0.765609903403355</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.1555575318681167</v>
       </c>
       <c r="P40" t="n">
-        <v>0.638628841124217</v>
+        <v>0.04258258150105246</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7898632165392637</v>
+        <v>0.807124223331338</v>
       </c>
       <c r="R40" t="n">
-        <v>0.001855394256301007</v>
+        <v>0.001727624500020607</v>
       </c>
       <c r="S40" t="n">
-        <v>83.36554829410345</v>
+        <v>83.59592622848805</v>
       </c>
       <c r="T40" t="n">
-        <v>78.07669203116437</v>
+        <v>77.88327355390079</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1040496648116806</v>
+        <v>0.1043430969032957</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.03056816729589302</v>
+        <v>0.01083918433985556</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5167739756189248</v>
+        <v>0.4505135198153356</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8894996181817558</v>
+        <v>0.1952937091349222</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01355450055629589</v>
+        <v>0.05430570749731367</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1120858607982449</v>
+        <v>0.007372636509372102</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4167431851488579</v>
+        <v>0.2371469919506884</v>
       </c>
       <c r="F41" t="n">
-        <v>0.09240414127490511</v>
+        <v>0.1363435412741613</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0583417078453872</v>
+        <v>0.02109462168582422</v>
       </c>
       <c r="H41" t="n">
-        <v>3.452800151580596e-05</v>
+        <v>0.001725732132372759</v>
       </c>
       <c r="I41" t="n">
-        <v>0.001067091542655279</v>
+        <v>0.0007614238351358969</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0008192702766130029</v>
+        <v>0.002696340873595186</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03796744790916834</v>
+        <v>0.6148997060694211</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9833214706420298</v>
+        <v>0.58514111884991</v>
       </c>
       <c r="M41" t="n">
-        <v>0.253593538550496</v>
+        <v>0.009362149066681435</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7836216531288317</v>
+        <v>0.0312742525934856</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03550205657044203</v>
+        <v>0.01639029311782139</v>
       </c>
       <c r="P41" t="n">
-        <v>0.1893620381328835</v>
+        <v>0.202228539259323</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7944469178490166</v>
+        <v>0.8111549882330379</v>
       </c>
       <c r="R41" t="n">
-        <v>0.00173350456710934</v>
+        <v>0.001814110304132299</v>
       </c>
       <c r="S41" t="n">
-        <v>83.29588910376759</v>
+        <v>83.87833343306899</v>
       </c>
       <c r="T41" t="n">
-        <v>78.1824188425819</v>
+        <v>77.7913348093671</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1039687935547462</v>
+        <v>0.1041107944307505</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.00557542554287804</v>
+        <v>-0.0146224126727821</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9976846795080154</v>
+        <v>0.998233835178866</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8708227364441526</v>
+        <v>0.9874828993806074</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02272511184647288</v>
+        <v>0.06028505119107151</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5826359538264041</v>
+        <v>0.09188807757383274</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4345003610100046</v>
+        <v>0.690563161763191</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1423141320345173</v>
+        <v>0.287372175194275</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005608497561571193</v>
+        <v>0.0158496004440256</v>
       </c>
       <c r="H42" t="n">
-        <v>7.095662236202309e-05</v>
+        <v>0.001755118395186359</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0001851775295899429</v>
+        <v>0.0004852595269864821</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002502099493603123</v>
+        <v>0.002924866381122249</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8506589507381555</v>
+        <v>0.2706114188058867</v>
       </c>
       <c r="L42" t="n">
-        <v>0.984360933866782</v>
+        <v>0.6492447610587448</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3654249358024676</v>
+        <v>0.4826704911178934</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7367887231161695</v>
+        <v>0.9026061922584646</v>
       </c>
       <c r="O42" t="n">
-        <v>0.05383401285997708</v>
+        <v>0.09692689132982724</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6007665132415244</v>
+        <v>0.3907549531682382</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7985715241013305</v>
+        <v>0.8130458958739392</v>
       </c>
       <c r="R42" t="n">
-        <v>0.001761094143034488</v>
+        <v>0.001761405475289609</v>
       </c>
       <c r="S42" t="n">
-        <v>83.51575463381828</v>
+        <v>83.86889189257846</v>
       </c>
       <c r="T42" t="n">
-        <v>78.0105101462597</v>
+        <v>77.80174665947766</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1039993695948877</v>
+        <v>0.1041101208900153</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.02681574443778988</v>
+        <v>-0.01214467071453693</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.990032587399118</v>
+        <v>0.3627046647359246</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8729595185188272</v>
+        <v>0.9948714458803556</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5100868944200589</v>
+        <v>0.0309328393837041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5769654608613607</v>
+        <v>0.5335769530074135</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4942984332231808</v>
+        <v>0.08875847876106488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09807352824341697</v>
+        <v>0.1513462880900404</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05008866593258164</v>
+        <v>0.02012141268655415</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001780019818279551</v>
+        <v>0.02174071789860272</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001853763495265737</v>
+        <v>0.0001272457351849579</v>
       </c>
       <c r="J43" t="n">
-        <v>0.008391398033340873</v>
+        <v>0.002860282609332731</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4317210205106132</v>
+        <v>0.7062418634594343</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9725721358906148</v>
+        <v>0.8899833945271727</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2684047286131596</v>
+        <v>0.162290863707673</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5666116614767648</v>
+        <v>0.88436608370693</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1208355703446431</v>
+        <v>0.01823569587747652</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5626558030675654</v>
+        <v>0.1429438263675835</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8026561397264549</v>
+        <v>0.8141230959331232</v>
       </c>
       <c r="R43" t="n">
-        <v>0.001817423907628753</v>
+        <v>0.001765350042181728</v>
       </c>
       <c r="S43" t="n">
-        <v>83.2981914423229</v>
+        <v>83.86996962444728</v>
       </c>
       <c r="T43" t="n">
-        <v>78.20252603474884</v>
+        <v>77.80683368303397</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1043388223341018</v>
+        <v>0.104824485163565</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.01553158572431138</v>
+        <v>-0.0198615867176457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5268444867284677</v>
+        <v>0.2209421125712282</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8678334952676302</v>
+        <v>0.342890713737786</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0135428788468208</v>
+        <v>0.03977620133355589</v>
       </c>
       <c r="D44" t="n">
-        <v>0.104647386702503</v>
+        <v>0.1836429565877132</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4301584271381315</v>
+        <v>0.9830792455277628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1494873273509367</v>
+        <v>0.1728283326649744</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00266795577841543</v>
+        <v>0.02306053822298093</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00300052192472921</v>
+        <v>0.002318309394205105</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01527627809083366</v>
+        <v>4.361354499654455e-05</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004089421712722138</v>
+        <v>0.002549416030229249</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03770093723287615</v>
+        <v>0.7068722647122495</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9824363830934637</v>
+        <v>0.0998617502397155</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2522733350964292</v>
+        <v>0.1387868806903117</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7836216531288317</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07485858154510404</v>
+        <v>0.2309822423270445</v>
       </c>
       <c r="P44" t="n">
-        <v>0.180869576213297</v>
+        <v>0.3631078878450016</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8047327277012395</v>
+        <v>0.8148208793432887</v>
       </c>
       <c r="R44" t="n">
-        <v>0.001824959338063985</v>
+        <v>0.001797476301552561</v>
       </c>
       <c r="S44" t="n">
-        <v>83.30055624947651</v>
+        <v>83.62278599912997</v>
       </c>
       <c r="T44" t="n">
-        <v>78.18643368128457</v>
+        <v>77.96704027934842</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1047183172888633</v>
+        <v>0.1041008560041329</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.01177867650180959</v>
+        <v>-0.01206888477880059</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4549324998754902</v>
+        <v>0.1937595690029698</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03053052001655059</v>
+        <v>0.1312180504975854</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01425476766231689</v>
+        <v>0.000380659443917861</v>
       </c>
       <c r="D45" t="n">
-        <v>0.581465804204475</v>
+        <v>0.1584565667338085</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02026554624130945</v>
+        <v>0.7450292230144351</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3409640045305595</v>
+        <v>0.1611654669097312</v>
       </c>
       <c r="G45" t="n">
-        <v>0.002022181963040581</v>
+        <v>0.02582437677860216</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0001058242414059709</v>
+        <v>0.002464999484821746</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000529016165837858</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J45" t="n">
-        <v>0.001255712703980194</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3555213770261507</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9809839735407252</v>
+        <v>0.09434171302589922</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2030955246063657</v>
+        <v>0.1518222682558851</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6195305632905954</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03611826000109111</v>
+        <v>0.0261629318626919</v>
       </c>
       <c r="P45" t="n">
-        <v>0.2785156974258348</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8070820450033972</v>
+        <v>0.8173516413328964</v>
       </c>
       <c r="R45" t="n">
-        <v>0.001578251761698175</v>
+        <v>0.001585888977286135</v>
       </c>
       <c r="S45" t="n">
-        <v>83.79450073480179</v>
+        <v>84.69479245134673</v>
       </c>
       <c r="T45" t="n">
-        <v>78.03876705167256</v>
+        <v>78.06644403543341</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1039676884336641</v>
+        <v>0.1041114096843067</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.0221971278626248</v>
+        <v>-0.01132311666132814</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5633119599695494</v>
+        <v>0.3532092703115662</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9803273688864662</v>
+        <v>0.9947309566758917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.597190106390542</v>
+        <v>0.04764685310207477</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8928527291827354</v>
+        <v>0.5421127269862838</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3381019860451214</v>
+        <v>0.08875847876106488</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06594232842372569</v>
+        <v>0.1507826780524457</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03903092787500542</v>
+        <v>0.1078405003195728</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0001661368642126588</v>
+        <v>0.02120198352306512</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0005076926389218691</v>
+        <v>0.0003005182531324051</v>
       </c>
       <c r="J46" t="n">
-        <v>2.781852114633982e-05</v>
+        <v>0.002860282609332731</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05039301566739579</v>
+        <v>0.7062418634594343</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9842842321398044</v>
+        <v>0.9220843319305413</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01237999913964416</v>
+        <v>0.3503041914718861</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2603490004097432</v>
+        <v>0.8867666190722714</v>
       </c>
       <c r="O46" t="n">
-        <v>0.05751023999705734</v>
+        <v>0.01817226308544813</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8007905866414751</v>
+        <v>0.2127162883261436</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8131048806204367</v>
+        <v>0.8185375581049044</v>
       </c>
       <c r="R46" t="n">
-        <v>0.001662745437782612</v>
+        <v>0.001746798569967858</v>
       </c>
       <c r="S46" t="n">
-        <v>84.23619075993852</v>
+        <v>83.92531640086004</v>
       </c>
       <c r="T46" t="n">
-        <v>78.09131607526449</v>
+        <v>77.83542443518608</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1039242385118036</v>
+        <v>0.1048111855096246</v>
       </c>
       <c r="V46" t="n">
-        <v>-0.02124069995562011</v>
+        <v>-0.03208528957143168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7878533728687487</v>
+        <v>0.3129851950314069</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01309074549169892</v>
+        <v>0.3908373438183467</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01044633486960421</v>
+        <v>0.009958699344607296</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5833227363353037</v>
+        <v>0.1584565667338085</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4055296177465161</v>
+        <v>0.9927388755823948</v>
       </c>
       <c r="F47" t="n">
-        <v>0.205837655850632</v>
+        <v>0.2372132548481457</v>
       </c>
       <c r="G47" t="n">
-        <v>0.008326272831335066</v>
+        <v>0.003017387170479967</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002932043085893594</v>
+        <v>0.002466824437254337</v>
       </c>
       <c r="I47" t="n">
-        <v>2.893296121158468e-05</v>
+        <v>0.001818009587873329</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0001004672375316679</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K47" t="n">
-        <v>0.02653984162066666</v>
+        <v>0.7324589193354276</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9459513675772381</v>
+        <v>0.09651523302000803</v>
       </c>
       <c r="M47" t="n">
-        <v>0.003460602257715929</v>
+        <v>0.005721392854920959</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01133130667226394</v>
+        <v>0.006344547279548583</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0430447376446205</v>
+        <v>0.1798794515915258</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1331102538767773</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8155772333750289</v>
+        <v>0.8221952992284478</v>
       </c>
       <c r="R47" t="n">
-        <v>0.001915451203414332</v>
+        <v>0.001550730636782976</v>
       </c>
       <c r="S47" t="n">
-        <v>83.34202226758842</v>
+        <v>84.88885367224789</v>
       </c>
       <c r="T47" t="n">
-        <v>78.10273866702056</v>
+        <v>78.45638004565605</v>
       </c>
       <c r="U47" t="n">
-        <v>0.1039140115733216</v>
+        <v>0.1041758857898141</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.02771282086641042</v>
+        <v>-0.01508578824221968</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9990191267370743</v>
+        <v>0.06635689520681745</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9550874916415447</v>
+        <v>0.1095555084310132</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09967139692048924</v>
+        <v>0.01449608749871098</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5979220238413674</v>
+        <v>0.008166325992459172</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1941399293408614</v>
+        <v>0.9340813337080637</v>
       </c>
       <c r="F48" t="n">
-        <v>0.222485014444027</v>
+        <v>0.1648584317506819</v>
       </c>
       <c r="G48" t="n">
-        <v>0.001074878225288278</v>
+        <v>0.002644022236101469</v>
       </c>
       <c r="H48" t="n">
-        <v>0.003257246375180154</v>
+        <v>0.002695747054134397</v>
       </c>
       <c r="I48" t="n">
-        <v>6.956554622639013e-06</v>
+        <v>0.0002162567969463718</v>
       </c>
       <c r="J48" t="n">
-        <v>7.286416958153952e-05</v>
+        <v>0.000261243228770568</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04815408168469876</v>
+        <v>0.3509956171305746</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9829089696347197</v>
+        <v>0.001968117471443912</v>
       </c>
       <c r="M48" t="n">
-        <v>0.001005496929049525</v>
+        <v>0.00889942894986121</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4938750093104323</v>
+        <v>7.776069587557273e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>0.05751023999705734</v>
+        <v>0.0141500488668769</v>
       </c>
       <c r="P48" t="n">
-        <v>0.5387602986114192</v>
+        <v>0.4044971210500384</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.8174262817818774</v>
+        <v>0.8274974902991008</v>
       </c>
       <c r="R48" t="n">
-        <v>0.00186744622979995</v>
+        <v>0.001665204386741295</v>
       </c>
       <c r="S48" t="n">
-        <v>83.4213541920456</v>
+        <v>83.56201070468593</v>
       </c>
       <c r="T48" t="n">
-        <v>78.27829512745075</v>
+        <v>78.09306835413027</v>
       </c>
       <c r="U48" t="n">
-        <v>0.1040205788426321</v>
+        <v>0.1040373951440927</v>
       </c>
       <c r="V48" t="n">
-        <v>-0.01801892062685138</v>
+        <v>-0.006261667536611327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9907713433670658</v>
+        <v>0.9487172342279846</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7793443497482655</v>
+        <v>0.9889536985263945</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01773721309209902</v>
+        <v>0.04764153130193902</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1071334181352723</v>
+        <v>0.03112124312858412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3328178808827406</v>
+        <v>0.7466196063570429</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07669616839053767</v>
+        <v>0.1423636446667076</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0002185412348021699</v>
+        <v>0.02286671850995988</v>
       </c>
       <c r="H49" t="n">
-        <v>1.845188442517118e-05</v>
+        <v>0.003179106164312127</v>
       </c>
       <c r="I49" t="n">
-        <v>1.267869582789685e-05</v>
+        <v>0.000160027952816903</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0001203737897635638</v>
+        <v>0.004810663817824082</v>
       </c>
       <c r="K49" t="n">
-        <v>0.422909556116028</v>
+        <v>0.7012281882530487</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8982725313800651</v>
+        <v>0.9301084414131198</v>
       </c>
       <c r="M49" t="n">
-        <v>0.001473015100194082</v>
+        <v>0.3720425726358448</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01805892466072267</v>
+        <v>0.6595837734575848</v>
       </c>
       <c r="O49" t="n">
-        <v>0.05943323736072707</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P49" t="n">
-        <v>0.06519268143068516</v>
+        <v>0.4008218778697492</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8185574015905921</v>
+        <v>0.8294518250830866</v>
       </c>
       <c r="R49" t="n">
-        <v>0.001533994398300471</v>
+        <v>0.001524325511519384</v>
       </c>
       <c r="S49" t="n">
-        <v>84.9629438744675</v>
+        <v>87.98474835462959</v>
       </c>
       <c r="T49" t="n">
-        <v>78.15985221862664</v>
+        <v>79.03521591326944</v>
       </c>
       <c r="U49" t="n">
-        <v>0.1039041030049751</v>
+        <v>0.1042190923177456</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.0174773699118003</v>
+        <v>0.009518462585713018</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8833474863784337</v>
+        <v>0.4987066755064512</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01309074549169892</v>
+        <v>0.3651087350080488</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01044633486960421</v>
+        <v>0.1303903738078385</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7429750770208866</v>
+        <v>8.821826370991668e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006694208397712653</v>
+        <v>0.0319395522246691</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01140278620809565</v>
+        <v>0.2005017335757425</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001006453311528738</v>
+        <v>0.02294147304612487</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0002932043085893594</v>
+        <v>0.002689609654581108</v>
       </c>
       <c r="I50" t="n">
-        <v>2.893296121158468e-05</v>
+        <v>0.001838222825820019</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0001004672375316679</v>
+        <v>0.002559937655605575</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02682548003061755</v>
+        <v>0.2675311397587976</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9363835748285927</v>
+        <v>0.5990394513595557</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01421104389417845</v>
+        <v>0.006568758093702994</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01112033523948153</v>
+        <v>0.001286375761960466</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0430447376446205</v>
+        <v>0.178287244586055</v>
       </c>
       <c r="P50" t="n">
-        <v>0.1198396378616625</v>
+        <v>0.188169842103825</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.8201371615238201</v>
+        <v>0.8324366999265435</v>
       </c>
       <c r="R50" t="n">
-        <v>0.001873467440374693</v>
+        <v>0.00175637195376216</v>
       </c>
       <c r="S50" t="n">
-        <v>83.43827383727729</v>
+        <v>83.38794475294132</v>
       </c>
       <c r="T50" t="n">
-        <v>78.289591514283</v>
+        <v>78.00207522346027</v>
       </c>
       <c r="U50" t="n">
-        <v>0.1039140073044207</v>
+        <v>0.1041804207790592</v>
       </c>
       <c r="V50" t="n">
-        <v>-0.02702489609661806</v>
+        <v>-0.01294061468090383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8152869993626944</v>
+        <v>0.9605829373738153</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02264092134886973</v>
+        <v>0.9541103054076314</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09889642243054479</v>
+        <v>0.02147149336598742</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7126754231804512</v>
+        <v>0.03514007701252908</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01386871684143026</v>
+        <v>0.9892968045599366</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08044351091300182</v>
+        <v>0.1547317489110066</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001028542297042898</v>
+        <v>0.003378459792938835</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0003516964863845805</v>
+        <v>0.002438136441450967</v>
       </c>
       <c r="I51" t="n">
-        <v>4.679369182902863e-08</v>
+        <v>0.000337474562087679</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0069547708782872</v>
+        <v>0.004710693830291421</v>
       </c>
       <c r="K51" t="n">
-        <v>0.009538908997408529</v>
+        <v>0.6514456352424338</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9537646621794974</v>
+        <v>0.8879868876635186</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3297228506266876</v>
+        <v>0.009464615703469445</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6293941819505663</v>
+        <v>0.6655804598680178</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03888460855497097</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1253521442825943</v>
+        <v>0.03842979411458039</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.8211333861730289</v>
+        <v>0.832599293304632</v>
       </c>
       <c r="R51" t="n">
-        <v>0.001708291494443201</v>
+        <v>0.001657730001765629</v>
       </c>
       <c r="S51" t="n">
-        <v>83.98113297876938</v>
+        <v>83.01656398597778</v>
       </c>
       <c r="T51" t="n">
-        <v>78.1211293795435</v>
+        <v>78.18653324608158</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1041658039304175</v>
+        <v>0.1041948793918287</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.02001577599756488</v>
+        <v>-0.00853749689614821</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.3085170725552756</v>
+        <v>0.05723727282103132</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9495203383647233</v>
+        <v>0.1029933773432011</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1959548577524656</v>
+        <v>0.02062448497507439</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8962377093062287</v>
+        <v>0.04292705134194456</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2011859126796026</v>
+        <v>0.9917161816131288</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0841091243832265</v>
+        <v>0.04514483741286655</v>
       </c>
       <c r="G52" t="n">
-        <v>0.003401589590291729</v>
+        <v>0.001989734219827369</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000496551546584372</v>
+        <v>0.002401910751451719</v>
       </c>
       <c r="I52" t="n">
-        <v>3.71269376527896e-05</v>
+        <v>3.037855340093663e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0006472693432681767</v>
+        <v>0.002645183030665011</v>
       </c>
       <c r="K52" t="n">
-        <v>0.008634548138005849</v>
+        <v>0.654071998125357</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9838603617269389</v>
+        <v>0.08205546223916665</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0004643913524077536</v>
+        <v>0.0005374516560345728</v>
       </c>
       <c r="N52" t="n">
-        <v>0.3601695210288686</v>
+        <v>0.0005993046633833833</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05791428720180272</v>
+        <v>0.2316107303887591</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6725220206428388</v>
+        <v>0.4100437199540987</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.8221576055834288</v>
+        <v>0.8370924866271318</v>
       </c>
       <c r="R52" t="n">
-        <v>0.001875336238652136</v>
+        <v>0.001595682616886787</v>
       </c>
       <c r="S52" t="n">
-        <v>83.46320632381108</v>
+        <v>83.28955329219021</v>
       </c>
       <c r="T52" t="n">
-        <v>78.30628717965556</v>
+        <v>78.25085897414637</v>
       </c>
       <c r="U52" t="n">
-        <v>0.1039417854919339</v>
+        <v>0.1041069616632335</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.01881141547501756</v>
+        <v>-0.01116174955890966</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9444343715385874</v>
+        <v>0.9972628822351025</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8729595185188272</v>
+        <v>0.9975400679813411</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5100868944200589</v>
+        <v>0.0002200970489925191</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5675033038209436</v>
+        <v>0.002939780812567516</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4748147200907776</v>
+        <v>0.7673061598808699</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09807352824341697</v>
+        <v>0.1596477616797689</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05008866593258164</v>
+        <v>0.02375537646496786</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001787394224355752</v>
+        <v>0.001692554500327125</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001853763495265737</v>
+        <v>6.508769010226713e-05</v>
       </c>
       <c r="J53" t="n">
-        <v>0.00234901418492798</v>
+        <v>0.002918507348647891</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05665434553864601</v>
+        <v>0.7066343881068411</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9725721358906148</v>
+        <v>0.7938197665010562</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2684047286131596</v>
+        <v>0.4310091420524568</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5855535107033475</v>
+        <v>0.8759715477095977</v>
       </c>
       <c r="O53" t="n">
-        <v>0.1208355703446431</v>
+        <v>0.2046909999422132</v>
       </c>
       <c r="P53" t="n">
-        <v>0.5626558030675654</v>
+        <v>0.04040802863078556</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.82401129973725</v>
+        <v>0.8371795067587504</v>
       </c>
       <c r="R53" t="n">
-        <v>0.001741430570887142</v>
+        <v>0.001524297606646937</v>
       </c>
       <c r="S53" t="n">
-        <v>83.60512187796752</v>
+        <v>87.98593141609024</v>
       </c>
       <c r="T53" t="n">
-        <v>78.06671084941982</v>
+        <v>79.03895023817505</v>
       </c>
       <c r="U53" t="n">
-        <v>0.1041178097261026</v>
+        <v>0.1040921730648474</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.01460854157403221</v>
+        <v>0.008438232031809038</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9572208397482381</v>
+        <v>0.02202203745648146</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9700830328655105</v>
+        <v>0.09486316738144812</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03195802212108647</v>
+        <v>0.02071236405472115</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03011845200782343</v>
+        <v>0.3296775323203032</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4213935469533059</v>
+        <v>0.1875424528179584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2542050211534751</v>
+        <v>0.2529162584407148</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1474826184946735</v>
+        <v>0.03316986158658895</v>
       </c>
       <c r="H54" t="n">
-        <v>0.001171622703505563</v>
+        <v>0.01010142485464855</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0005682540811152161</v>
+        <v>0.0004126723277417996</v>
       </c>
       <c r="J54" t="n">
-        <v>0.002371324139651453</v>
+        <v>0.0006566115619067483</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5692610963819846</v>
+        <v>0.6954196723772303</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9714139089716889</v>
+        <v>0.696887854680691</v>
       </c>
       <c r="M54" t="n">
-        <v>0.001520117060378747</v>
+        <v>0.1502162319501667</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05060940413700364</v>
+        <v>0.009426947297368815</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1218957009004656</v>
+        <v>0.02534780675699823</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2860970282577208</v>
+        <v>0.1245711217469084</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.8292592983556252</v>
+        <v>0.8386239522617517</v>
       </c>
       <c r="R54" t="n">
-        <v>0.001768928664996092</v>
+        <v>0.001526841830875016</v>
       </c>
       <c r="S54" t="n">
-        <v>83.64090353716966</v>
+        <v>87.40139437603816</v>
       </c>
       <c r="T54" t="n">
-        <v>78.07553637512515</v>
+        <v>78.92709286091775</v>
       </c>
       <c r="U54" t="n">
-        <v>0.1040489966163503</v>
+        <v>0.1043291622583417</v>
       </c>
       <c r="V54" t="n">
-        <v>-0.01394433392178215</v>
+        <v>-0.002577482969783097</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9953279666872799</v>
+        <v>0.9956139325139101</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8086507947096274</v>
+        <v>0.9514184418548958</v>
       </c>
       <c r="C55" t="n">
-        <v>0.589363438589988</v>
+        <v>0.04041250180983486</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1401108442633794</v>
+        <v>0.1991546118917006</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5026503967636048</v>
+        <v>0.4569157771356258</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0549638161012083</v>
+        <v>0.3873214711467059</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008859705584510151</v>
+        <v>0.003186531847582587</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0002869024043356686</v>
+        <v>0.0002564155686179057</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0001372780131386545</v>
+        <v>3.893999127716169e-05</v>
       </c>
       <c r="J55" t="n">
-        <v>9.749163182235219e-05</v>
+        <v>0.002737000413680894</v>
       </c>
       <c r="K55" t="n">
-        <v>0.002084530987297079</v>
+        <v>0.6738707981707559</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9217931375916097</v>
+        <v>0.6561044042181662</v>
       </c>
       <c r="M55" t="n">
-        <v>0.001235546861873471</v>
+        <v>0.3802368334412344</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0152649762226349</v>
+        <v>0.680407633831941</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0437910636479963</v>
+        <v>0.002609580418429215</v>
       </c>
       <c r="P55" t="n">
-        <v>0.09865768346082798</v>
+        <v>0.4136552537431749</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8344817166409803</v>
+        <v>0.8405032461835854</v>
       </c>
       <c r="R55" t="n">
-        <v>0.001718142934818693</v>
+        <v>0.001526331451698042</v>
       </c>
       <c r="S55" t="n">
-        <v>83.52734203058404</v>
+        <v>87.64288815483873</v>
       </c>
       <c r="T55" t="n">
-        <v>78.15240235465407</v>
+        <v>78.93606634326839</v>
       </c>
       <c r="U55" t="n">
-        <v>0.1039176826783094</v>
+        <v>0.1040321927820679</v>
       </c>
       <c r="V55" t="n">
-        <v>-0.01994770721495129</v>
+        <v>-0.004342364923281852</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9541041526397075</v>
+        <v>0.1995246662478766</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7378063351445172</v>
+        <v>0.1227384618046439</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6818976360150787</v>
+        <v>0.0003621086753371593</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9627530834079908</v>
+        <v>0.03096677714337746</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02934058902382883</v>
+        <v>0.7545055209689068</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05161572927425792</v>
+        <v>0.05739091665569412</v>
       </c>
       <c r="G56" t="n">
-        <v>0.007781255523271552</v>
+        <v>0.004046762709793277</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0003644770858237881</v>
+        <v>0.002298944075873559</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0005251844274448257</v>
+        <v>4.14180574407617e-05</v>
       </c>
       <c r="J56" t="n">
-        <v>0.000116445009654716</v>
+        <v>0.004801820452309444</v>
       </c>
       <c r="K56" t="n">
-        <v>0.07639126257416366</v>
+        <v>0.6684454218802459</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9322358635868619</v>
+        <v>0.1224920418879615</v>
       </c>
       <c r="M56" t="n">
-        <v>0.003541546585109496</v>
+        <v>0.01959884892015895</v>
       </c>
       <c r="N56" t="n">
-        <v>0.03768132707302746</v>
+        <v>0.01099343922016188</v>
       </c>
       <c r="O56" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P56" t="n">
-        <v>0.638628841124217</v>
+        <v>0.4054703341352235</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8404267616509262</v>
+        <v>0.8426749807501593</v>
       </c>
       <c r="R56" t="n">
-        <v>0.001850621002644237</v>
+        <v>0.001529467846161281</v>
       </c>
       <c r="S56" t="n">
-        <v>83.48510527799783</v>
+        <v>88.70619201525928</v>
       </c>
       <c r="T56" t="n">
-        <v>78.31566490941221</v>
+        <v>79.27664153925463</v>
       </c>
       <c r="U56" t="n">
-        <v>0.1039353790699712</v>
+        <v>0.1041823633766283</v>
       </c>
       <c r="V56" t="n">
-        <v>-0.02675638179469201</v>
+        <v>-0.01636717481645995</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4680280336914792</v>
+        <v>0.9686355447718564</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03882923458091558</v>
+        <v>0.8776834526265546</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001208700378633465</v>
+        <v>0.09767923639587042</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7342369316603938</v>
+        <v>0.1761235246910772</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02665155819597156</v>
+        <v>0.2664389828696706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.241554214710456</v>
+        <v>0.1701760610343823</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02898063389645483</v>
+        <v>0.06789279092639361</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001773464531078797</v>
+        <v>0.003847823662258248</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0004929876897606324</v>
+        <v>0.0005679515735687006</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0004132038221854521</v>
+        <v>0.0004145035331141831</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02352243049086358</v>
+        <v>0.442166473680928</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9843604175619046</v>
+        <v>0.9151064182812501</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001414699774718009</v>
+        <v>0.1481130195790611</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03646842333347342</v>
+        <v>0.9010436543662755</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0128413317031582</v>
+        <v>0.1618247278696216</v>
       </c>
       <c r="P57" t="n">
-        <v>0.6373032373778662</v>
+        <v>0.03273164441290235</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.8477352618479563</v>
+        <v>0.8432914671849021</v>
       </c>
       <c r="R57" t="n">
-        <v>0.001578189094001069</v>
+        <v>0.001558560276329386</v>
       </c>
       <c r="S57" t="n">
-        <v>84.11131949963443</v>
+        <v>85.33847361584186</v>
       </c>
       <c r="T57" t="n">
-        <v>78.34472252882138</v>
+        <v>78.32068492156262</v>
       </c>
       <c r="U57" t="n">
-        <v>0.103996588218719</v>
+        <v>0.104097759382099</v>
       </c>
       <c r="V57" t="n">
-        <v>-0.02518254216035442</v>
+        <v>0.007161358606010741</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9986507445220019</v>
+        <v>0.9686355447718564</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9545095691156557</v>
+        <v>0.9735023427133941</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5979862943346242</v>
+        <v>0.03876013806700573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8562224418187272</v>
+        <v>0.2005685725570714</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4171253520697375</v>
+        <v>0.2681405714910744</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08268279881882075</v>
+        <v>0.1701760610343823</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1130276544063187</v>
+        <v>0.0678715231073635</v>
       </c>
       <c r="H58" t="n">
-        <v>0.005955188820280486</v>
+        <v>0.0001593042107568246</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0006528648164507171</v>
+        <v>0.0005679515735687006</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0005714620529060094</v>
+        <v>0.0004145035331141831</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4980047319799724</v>
+        <v>0.442166473680928</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9833821923094251</v>
+        <v>0.9154658498824674</v>
       </c>
       <c r="M58" t="n">
-        <v>0.2969028838968448</v>
+        <v>0.1481128659580137</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5011392338526151</v>
+        <v>0.9010436543662755</v>
       </c>
       <c r="O58" t="n">
-        <v>0.1214850679544556</v>
+        <v>0.1735786161892657</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7664001827194044</v>
+        <v>0.03273164441290235</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.8490164525533151</v>
+        <v>0.8460277715646438</v>
       </c>
       <c r="R58" t="n">
-        <v>0.0015510007262382</v>
+        <v>0.001705371576431186</v>
       </c>
       <c r="S58" t="n">
-        <v>84.91458482138094</v>
+        <v>83.66937529442667</v>
       </c>
       <c r="T58" t="n">
-        <v>78.10925923925309</v>
+        <v>78.24927961023714</v>
       </c>
       <c r="U58" t="n">
-        <v>0.1041612027292844</v>
+        <v>0.1039632038919551</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.02424473941048334</v>
+        <v>0.007139293138684236</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9425880326134753</v>
+        <v>0.2184969295531703</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9573318082451278</v>
+        <v>0.9718296542736706</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6468354495791655</v>
+        <v>0.04687951805727939</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5664409164524707</v>
+        <v>0.5399738176015214</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4331301850419816</v>
+        <v>0.09424942515821502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2832512577019222</v>
+        <v>0.1708765321208223</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0373614228268032</v>
+        <v>0.0746884313092674</v>
       </c>
       <c r="H59" t="n">
-        <v>0.001222342745480133</v>
+        <v>0.002537671003978105</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0005245336383137053</v>
+        <v>0.0001848844271787658</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0009487457628615712</v>
+        <v>0.002880275399390282</v>
       </c>
       <c r="K59" t="n">
-        <v>0.002514434071316726</v>
+        <v>0.7069861545159691</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9559557592996157</v>
+        <v>0.9292758870089607</v>
       </c>
       <c r="M59" t="n">
-        <v>0.003551355851031732</v>
+        <v>0.1474098554940006</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01020273024058921</v>
+        <v>0.8731361650723548</v>
       </c>
       <c r="O59" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.02549403224603428</v>
       </c>
       <c r="P59" t="n">
-        <v>0.2763783632022598</v>
+        <v>0.4175835195748811</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.8509385220119745</v>
+        <v>0.8487271116275197</v>
       </c>
       <c r="R59" t="n">
-        <v>0.00162910297600861</v>
+        <v>0.001582507789219539</v>
       </c>
       <c r="S59" t="n">
-        <v>84.00713548876639</v>
+        <v>85.00416579011056</v>
       </c>
       <c r="T59" t="n">
-        <v>78.2589096875105</v>
+        <v>78.27059139440289</v>
       </c>
       <c r="U59" t="n">
-        <v>0.1039972058612755</v>
+        <v>0.1041261976658973</v>
       </c>
       <c r="V59" t="n">
-        <v>-0.0232773254269967</v>
+        <v>-0.08111316247132944</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8821234997025426</v>
+        <v>0.9487172342279846</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8708443916361164</v>
+        <v>0.9889536985263945</v>
       </c>
       <c r="C60" t="n">
-        <v>0.658021204236275</v>
+        <v>0.0003621086753371593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8847729393187422</v>
+        <v>0.03112124312858412</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03130361086576119</v>
+        <v>0.7466196063570429</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2774808991138768</v>
+        <v>0.0556753871122295</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01077308855120801</v>
+        <v>0.02286671850995988</v>
       </c>
       <c r="H60" t="n">
-        <v>0.008897624062181097</v>
+        <v>0.002385990924029572</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0002130449455703767</v>
+        <v>0.0001602493607549035</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0009862133035934038</v>
+        <v>0.004801820452309444</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02542772269442017</v>
+        <v>0.6685424976254498</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9957708171896684</v>
+        <v>0.5874883875266665</v>
       </c>
       <c r="M60" t="n">
-        <v>0.006226030290839457</v>
+        <v>0.3721248987431139</v>
       </c>
       <c r="N60" t="n">
-        <v>0.4666668470361263</v>
+        <v>0.6595837734575848</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0006664480541635487</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1500651494459897</v>
+        <v>0.4054860695707692</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.852053223233141</v>
+        <v>0.849330455270498</v>
       </c>
       <c r="R60" t="n">
-        <v>0.001810707637423407</v>
+        <v>0.001532937083109825</v>
       </c>
       <c r="S60" t="n">
-        <v>83.6904750781252</v>
+        <v>87.24548618256169</v>
       </c>
       <c r="T60" t="n">
-        <v>78.30459038172825</v>
+        <v>79.00465451102554</v>
       </c>
       <c r="U60" t="n">
-        <v>0.1042679417282399</v>
+        <v>0.1041897994637196</v>
       </c>
       <c r="V60" t="n">
-        <v>-0.02564811724850507</v>
+        <v>0.0113825122853817</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5777482596786427</v>
+        <v>0.0610828473791804</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9808438541907396</v>
+        <v>0.09260472259180225</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1240193067335787</v>
+        <v>0.01066530687227861</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8928527291827354</v>
+        <v>0.04410959126428213</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01058852124627486</v>
+        <v>0.222003855156595</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09129894226422844</v>
+        <v>0.1715998730958086</v>
       </c>
       <c r="G61" t="n">
-        <v>0.002590487441797875</v>
+        <v>0.001524411901837518</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001738207423214426</v>
+        <v>0.001635087807805555</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0001151863301670755</v>
+        <v>4.369709930289407e-05</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0249337488469489</v>
+        <v>0.000524176046507486</v>
       </c>
       <c r="K61" t="n">
-        <v>0.05179222641664606</v>
+        <v>0.2300949287186801</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9842842321398044</v>
+        <v>0.04821725276766442</v>
       </c>
       <c r="M61" t="n">
-        <v>0.002958370791179971</v>
+        <v>0.01245711790675984</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2373734386055474</v>
+        <v>7.453271336163272e-05</v>
       </c>
       <c r="O61" t="n">
-        <v>0.009486974446577978</v>
+        <v>0.02659554425268135</v>
       </c>
       <c r="P61" t="n">
-        <v>0.4812922917535175</v>
+        <v>0.1793582044302401</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.8542729230410837</v>
+        <v>0.8517555134633464</v>
       </c>
       <c r="R61" t="n">
-        <v>0.001780417251435362</v>
+        <v>0.001533958845460489</v>
       </c>
       <c r="S61" t="n">
-        <v>83.73624190448302</v>
+        <v>86.84570704941093</v>
       </c>
       <c r="T61" t="n">
-        <v>78.27136623756816</v>
+        <v>78.8674668366224</v>
       </c>
       <c r="U61" t="n">
-        <v>0.1048790662722174</v>
+        <v>0.1040019898462151</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.02373301444921289</v>
+        <v>-0.004994270781522071</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9857080185514705</v>
+        <v>0.02773697942769671</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8884195518409188</v>
+        <v>0.9401060202339656</v>
       </c>
       <c r="C62" t="n">
-        <v>0.009749395227590885</v>
+        <v>0.02049428230340843</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5971552187291269</v>
+        <v>0.01589435693234692</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3228157918841171</v>
+        <v>0.6521282456312485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3045518866076134</v>
+        <v>0.08877004477844737</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06259463377206077</v>
+        <v>0.005250311522571738</v>
       </c>
       <c r="H62" t="n">
-        <v>0.006190101727573101</v>
+        <v>0.0003090967107928057</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0001406507245445541</v>
+        <v>0.0003420022494955017</v>
       </c>
       <c r="J62" t="n">
-        <v>0.009081368966576419</v>
+        <v>0.0003620473334879611</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9538782303196769</v>
+        <v>0.225010620835386</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9895682684168847</v>
+        <v>0.6737215274554496</v>
       </c>
       <c r="M62" t="n">
-        <v>0.001573016214030068</v>
+        <v>0.01187112178887589</v>
       </c>
       <c r="N62" t="n">
-        <v>0.6506845054446271</v>
+        <v>0.001252947359746273</v>
       </c>
       <c r="O62" t="n">
-        <v>0.06757324113722202</v>
+        <v>0.007575660910479384</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8333083561235879</v>
+        <v>0.995317657364134</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8553777290818645</v>
+        <v>0.851883890073281</v>
       </c>
       <c r="R62" t="n">
-        <v>0.001695495565793285</v>
+        <v>0.001536214951781079</v>
       </c>
       <c r="S62" t="n">
-        <v>83.87687476034411</v>
+        <v>86.78041007037649</v>
       </c>
       <c r="T62" t="n">
-        <v>78.32656811743016</v>
+        <v>78.81597204655775</v>
       </c>
       <c r="U62" t="n">
-        <v>0.1044629806206255</v>
+        <v>0.1039587154707736</v>
       </c>
       <c r="V62" t="n">
-        <v>-0.01697753410369341</v>
+        <v>-0.01795430967049389</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8921391529144086</v>
+        <v>0.9752307446709747</v>
       </c>
       <c r="B63" t="n">
-        <v>0.964509421397069</v>
+        <v>0.9749127848983318</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6227685008301546</v>
+        <v>0.03183591540399024</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8783995679073022</v>
+        <v>0.237938554481095</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3605988675978186</v>
+        <v>0.3875775891874819</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1110872138845259</v>
+        <v>0.1547910055900474</v>
       </c>
       <c r="G63" t="n">
-        <v>0.006145518299959674</v>
+        <v>0.02755176706385896</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001258185451508515</v>
+        <v>0.001264169101299504</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0001314218508686501</v>
+        <v>9.254035435775425e-05</v>
       </c>
       <c r="J63" t="n">
-        <v>0.002485434745449371</v>
+        <v>0.0004910551370153983</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5156582282900894</v>
+        <v>0.6712788791702092</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9766013155377441</v>
+        <v>0.6186354069799391</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0006635102271240784</v>
+        <v>0.005465359995594686</v>
       </c>
       <c r="N63" t="n">
-        <v>0.6257828903857787</v>
+        <v>0.9080842165511682</v>
       </c>
       <c r="O63" t="n">
-        <v>0.04575805341053196</v>
+        <v>0.03188535968529387</v>
       </c>
       <c r="P63" t="n">
-        <v>0.6300517634302802</v>
+        <v>0.2049533225377844</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.8558131810292197</v>
+        <v>0.8525919055695355</v>
       </c>
       <c r="R63" t="n">
-        <v>0.001632532095688301</v>
+        <v>0.001539665009975824</v>
       </c>
       <c r="S63" t="n">
-        <v>84.6050159051206</v>
+        <v>87.93581355019059</v>
       </c>
       <c r="T63" t="n">
-        <v>78.078759616441</v>
+        <v>79.12376822992979</v>
       </c>
       <c r="U63" t="n">
-        <v>0.1040402982439624</v>
+        <v>0.1039889378356861</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.03157145605870179</v>
+        <v>-0.009932883809670272</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.378541091619645</v>
+        <v>0.9603587626585711</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01885737068654075</v>
+        <v>0.9870522746556631</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6239300305205486</v>
+        <v>0.04687951805727939</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6074544845990005</v>
+        <v>0.5402925272492083</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02807607703534917</v>
+        <v>0.2314348127200934</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02898957830815327</v>
+        <v>0.2799400611177958</v>
       </c>
       <c r="G64" t="n">
-        <v>0.006930082114672435</v>
+        <v>0.05645757402449616</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001231112468645531</v>
+        <v>0.002537671003978105</v>
       </c>
       <c r="I64" t="n">
-        <v>2.341252794945818e-05</v>
+        <v>0.0001950408139922431</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0008342678934162415</v>
+        <v>0.002853174091081394</v>
       </c>
       <c r="K64" t="n">
-        <v>0.02074351493466041</v>
+        <v>0.7047486271893021</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9770184079422691</v>
+        <v>0.9292302246339332</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0127417612764649</v>
+        <v>0.1474098554940006</v>
       </c>
       <c r="N64" t="n">
-        <v>0.4397556245563806</v>
+        <v>0.8731361650723548</v>
       </c>
       <c r="O64" t="n">
-        <v>0.1185430039406516</v>
+        <v>0.02547410706161838</v>
       </c>
       <c r="P64" t="n">
-        <v>0.2647301441629629</v>
+        <v>0.4178306242536379</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.8566882937750117</v>
+        <v>0.8528383851410342</v>
       </c>
       <c r="R64" t="n">
-        <v>0.001568505266320573</v>
+        <v>0.001538388209418866</v>
       </c>
       <c r="S64" t="n">
-        <v>85.09913578193081</v>
+        <v>88.65162809668492</v>
       </c>
       <c r="T64" t="n">
-        <v>78.64032363386941</v>
+        <v>79.12309257134106</v>
       </c>
       <c r="U64" t="n">
-        <v>0.1039749566493575</v>
+        <v>0.1041254596700276</v>
       </c>
       <c r="V64" t="n">
-        <v>-0.01925775751111745</v>
+        <v>-0.01221044058938051</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4867369563586236</v>
+        <v>0.2184969295531703</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9520892814497962</v>
+        <v>0.9887682610393645</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6247953556085027</v>
+        <v>0.04782711939340292</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8665079856351582</v>
+        <v>0.5021182599223559</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4171253520697375</v>
+        <v>0.09424942515821502</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07797910511397897</v>
+        <v>0.1708765321208223</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1116542952085664</v>
+        <v>0.0746884313092674</v>
       </c>
       <c r="H65" t="n">
-        <v>0.006133126456318362</v>
+        <v>0.0004845813941121617</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0003117063207524492</v>
+        <v>0.0001848844271787658</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0007819264099686976</v>
+        <v>0.002880275399390282</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4980047319799724</v>
+        <v>0.7128998332204389</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9833821923094251</v>
+        <v>0.9294105050677035</v>
       </c>
       <c r="M65" t="n">
-        <v>0.002397853276222648</v>
+        <v>0.144216998804476</v>
       </c>
       <c r="N65" t="n">
-        <v>0.5011392338526151</v>
+        <v>0.8992012077634094</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1214419021180524</v>
+        <v>0.02555774475090369</v>
       </c>
       <c r="P65" t="n">
-        <v>0.7699624544175967</v>
+        <v>0.4350636652797415</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.859829356956181</v>
+        <v>0.8553252062688043</v>
       </c>
       <c r="R65" t="n">
-        <v>0.001800983740316422</v>
+        <v>0.001538735612730807</v>
       </c>
       <c r="S65" t="n">
-        <v>83.91791485773905</v>
+        <v>88.5422227406366</v>
       </c>
       <c r="T65" t="n">
-        <v>78.23768304263939</v>
+        <v>79.08918856141362</v>
       </c>
       <c r="U65" t="n">
-        <v>0.1041629232461331</v>
+        <v>0.1040512462132504</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.01413062893991216</v>
+        <v>-0.08194773368701397</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4549324998754902</v>
+        <v>0.4075966154958205</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03053052001655059</v>
+        <v>0.9863857944667322</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01425476766231689</v>
+        <v>0.03828650856646227</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5814720768735612</v>
+        <v>0.5406183110685687</v>
       </c>
       <c r="E66" t="n">
-        <v>0.02026809658314281</v>
+        <v>0.142526382536523</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3418561227760957</v>
+        <v>0.1663366894066236</v>
       </c>
       <c r="G66" t="n">
-        <v>0.005441894258548321</v>
+        <v>0.04872153198598237</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0001058242414059709</v>
+        <v>0.01710783866019739</v>
       </c>
       <c r="I66" t="n">
-        <v>3.29078122214621e-05</v>
+        <v>0.0007470263390808277</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0009384261100861771</v>
+        <v>0.01012954962772301</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3555213770261507</v>
+        <v>0.4591651592749799</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9810099604081206</v>
+        <v>0.9403071152696892</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3314708942323181</v>
+        <v>0.3592866554877763</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6195305632905954</v>
+        <v>0.8737491747192695</v>
       </c>
       <c r="O66" t="n">
-        <v>0.03611826000109111</v>
+        <v>0.02549696150240862</v>
       </c>
       <c r="P66" t="n">
-        <v>0.2781397063641539</v>
+        <v>0.01820486965517919</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.8619920777725762</v>
+        <v>0.8610566619013819</v>
       </c>
       <c r="R66" t="n">
-        <v>0.001755168587675556</v>
+        <v>0.001656733222288126</v>
       </c>
       <c r="S66" t="n">
-        <v>84.3065838066187</v>
+        <v>84.17890682520441</v>
       </c>
       <c r="T66" t="n">
-        <v>78.76506575466581</v>
+        <v>78.15993411277124</v>
       </c>
       <c r="U66" t="n">
-        <v>0.1039379233349075</v>
+        <v>0.1049451846501869</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.0211061801720735</v>
+        <v>0.002011266057295222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8833474863784337</v>
+        <v>0.0610828473791804</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03394618986139621</v>
+        <v>0.09260472259180225</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01044633486960421</v>
+        <v>0.1566663970808163</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7429750770208866</v>
+        <v>0.04410959126428213</v>
       </c>
       <c r="E67" t="n">
-        <v>0.009518626099949301</v>
+        <v>0.1746990278712209</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08047513053088391</v>
+        <v>0.1573011635088077</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0009855870061901166</v>
+        <v>0.03263988573832929</v>
       </c>
       <c r="H67" t="n">
-        <v>0.003199290206738059</v>
+        <v>0.001635087807805555</v>
       </c>
       <c r="I67" t="n">
-        <v>2.971910845013537e-05</v>
+        <v>0.00178416439269192</v>
       </c>
       <c r="J67" t="n">
-        <v>0.008625275253324991</v>
+        <v>0.0005727048440922205</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3917739295091962</v>
+        <v>0.6684232835843735</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9498237612464987</v>
+        <v>0.6657699659818985</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3117583872046102</v>
+        <v>0.1482864545255107</v>
       </c>
       <c r="N67" t="n">
-        <v>0.6619426845920284</v>
+        <v>7.453271336163272e-05</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1209225879295692</v>
+        <v>0.2358393246689291</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1198396378616625</v>
+        <v>0.1795619654556989</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.8626716130007133</v>
+        <v>0.862110533088468</v>
       </c>
       <c r="R67" t="n">
-        <v>0.001794842821118731</v>
+        <v>0.001542593393577175</v>
       </c>
       <c r="S67" t="n">
-        <v>83.98334728457829</v>
+        <v>88.27741807186449</v>
       </c>
       <c r="T67" t="n">
-        <v>78.24540752159135</v>
+        <v>79.21395288161646</v>
       </c>
       <c r="U67" t="n">
-        <v>0.1043324522352432</v>
+        <v>0.1040673137371992</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.02201652609186489</v>
+        <v>-0.005600902402942004</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8658373837445087</v>
+        <v>0.1915057635978298</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8896366658605772</v>
+        <v>0.1194723719088066</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6133707378621079</v>
+        <v>0.02092158269100503</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5971552187291269</v>
+        <v>0.192985689804352</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4900395779368741</v>
+        <v>0.6998492679988719</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3885741358969504</v>
+        <v>0.1546538503420993</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01876247231310336</v>
+        <v>0.004655982046050882</v>
       </c>
       <c r="H68" t="n">
-        <v>0.00616370705628695</v>
+        <v>0.001523427245886068</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0001616889582906827</v>
+        <v>0.0003074330082901816</v>
       </c>
       <c r="J68" t="n">
-        <v>0.009814891093331571</v>
+        <v>0.0005197858484115166</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9538782303196769</v>
+        <v>0.6296368448856653</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9856187650102793</v>
+        <v>0.06763668124801281</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01527308780675216</v>
+        <v>0.005963182191837904</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1026402913960261</v>
+        <v>0.02051937962985332</v>
       </c>
       <c r="O68" t="n">
-        <v>0.7799658777361093</v>
+        <v>0.2382897838843782</v>
       </c>
       <c r="P68" t="n">
-        <v>0.8248187662508573</v>
+        <v>0.04543523832673984</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.8662531144590482</v>
+        <v>0.8642331788642991</v>
       </c>
       <c r="R68" t="n">
-        <v>0.001562400240203895</v>
+        <v>0.001552477660680761</v>
       </c>
       <c r="S68" t="n">
-        <v>85.33995591740531</v>
+        <v>86.05609860602578</v>
       </c>
       <c r="T68" t="n">
-        <v>78.40862583556282</v>
+        <v>78.50113657028984</v>
       </c>
       <c r="U68" t="n">
-        <v>0.1044897409373996</v>
+        <v>0.104007342706353</v>
       </c>
       <c r="V68" t="n">
-        <v>-0.01925820227906128</v>
+        <v>-0.01200870355906671</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2121216807382874</v>
+        <v>0.4075966154958205</v>
       </c>
       <c r="B69" t="n">
-        <v>6.078209595458337e-05</v>
+        <v>0.9722835450611659</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5977947346126042</v>
+        <v>0.03828650856646227</v>
       </c>
       <c r="D69" t="n">
-        <v>0.715158188119993</v>
+        <v>0.5745864747817578</v>
       </c>
       <c r="E69" t="n">
-        <v>0.006773245327725825</v>
+        <v>0.142526382536523</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07929170884200358</v>
+        <v>0.1663366894066236</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0009055857822379372</v>
+        <v>0.02682983127333458</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0002543608888051138</v>
+        <v>0.002831930697268786</v>
       </c>
       <c r="I69" t="n">
-        <v>2.188603097607462e-07</v>
+        <v>0.000873986830980025</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005184200215894251</v>
+        <v>0.01012954962772301</v>
       </c>
       <c r="K69" t="n">
-        <v>0.002761706940814651</v>
+        <v>0.4616503558778913</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9336501260633451</v>
+        <v>0.9395602480986925</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2706687740765565</v>
+        <v>0.3521895669387531</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6293941819505663</v>
+        <v>0.8737571696204399</v>
       </c>
       <c r="O69" t="n">
-        <v>0.05561849486257758</v>
+        <v>0.02463118245905739</v>
       </c>
       <c r="P69" t="n">
-        <v>0.1286563071307042</v>
+        <v>0.01820486965517919</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.867714443431899</v>
+        <v>0.8674523894185223</v>
       </c>
       <c r="R69" t="n">
-        <v>0.00153559105331763</v>
+        <v>0.001543406537908053</v>
       </c>
       <c r="S69" t="n">
-        <v>85.86138916037194</v>
+        <v>88.39211873841273</v>
       </c>
       <c r="T69" t="n">
-        <v>78.42856354003423</v>
+        <v>79.06458456029003</v>
       </c>
       <c r="U69" t="n">
-        <v>0.1040974934275763</v>
+        <v>0.1044270702243803</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.02897039584391065</v>
+        <v>0.002212241359614391</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9976846795080154</v>
+        <v>0.9981151376973708</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8708227364441526</v>
+        <v>0.9879840927828485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09642364259937543</v>
+        <v>0.03183591540399024</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5880319956546538</v>
+        <v>0.237938554481095</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1943594509117128</v>
+        <v>0.5041944373089938</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1974112818158718</v>
+        <v>0.1547910055900474</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04689319918284735</v>
+        <v>0.0264044288834415</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0003029189194406058</v>
+        <v>0.0002061904114643287</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0001851775295899429</v>
+        <v>9.254035435775425e-05</v>
       </c>
       <c r="J70" t="n">
-        <v>0.002502099493603123</v>
+        <v>0.0002913399108546265</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8506589507381555</v>
+        <v>0.6712788791702092</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9842305717503341</v>
+        <v>0.6186354069799391</v>
       </c>
       <c r="M70" t="n">
-        <v>0.3654249358024676</v>
+        <v>0.005465359995594686</v>
       </c>
       <c r="N70" t="n">
-        <v>0.6597202688573821</v>
+        <v>0.9306843956527623</v>
       </c>
       <c r="O70" t="n">
-        <v>0.05918186807694792</v>
+        <v>0.03180533296716477</v>
       </c>
       <c r="P70" t="n">
-        <v>0.14901613079281</v>
+        <v>0.2049533225377844</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.8682157065805558</v>
+        <v>0.8720105349618105</v>
       </c>
       <c r="R70" t="n">
-        <v>0.001528822717842512</v>
+        <v>0.001556335911063749</v>
       </c>
       <c r="S70" t="n">
-        <v>86.74567111985041</v>
+        <v>86.19111248506067</v>
       </c>
       <c r="T70" t="n">
-        <v>78.55130893253566</v>
+        <v>78.51867016160273</v>
       </c>
       <c r="U70" t="n">
-        <v>0.1040078769901301</v>
+        <v>0.1039430559570779</v>
       </c>
       <c r="V70" t="n">
-        <v>-0.02033274482894088</v>
+        <v>-0.01255220821768228</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9907713433670658</v>
+        <v>0.9888407185873778</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8583971013855834</v>
+        <v>0.9728292985998103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6751351534118584</v>
+        <v>0.02983448470561179</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9967858392854596</v>
+        <v>0.04816019367902688</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4398442776537315</v>
+        <v>0.2467872629460585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1642836833195596</v>
+        <v>0.09109157083511454</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00578383332546027</v>
+        <v>0.06933311809130684</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0003074108156626349</v>
+        <v>0.001817102735759979</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0005184563620260022</v>
+        <v>0.0003260113229383835</v>
       </c>
       <c r="J71" t="n">
-        <v>0.002308697640497332</v>
+        <v>0.0002939015037465839</v>
       </c>
       <c r="K71" t="n">
-        <v>0.04476645484911884</v>
+        <v>0.6668036064232037</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8982725313800651</v>
+        <v>0.7426372173385958</v>
       </c>
       <c r="M71" t="n">
-        <v>0.001473015100194082</v>
+        <v>0.009214981092752164</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04013127304698707</v>
+        <v>0.8739640776084178</v>
       </c>
       <c r="O71" t="n">
-        <v>0.05835412985245118</v>
+        <v>0.01667678387340141</v>
       </c>
       <c r="P71" t="n">
-        <v>0.06519268143068516</v>
+        <v>0.02305001536342019</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.8685516656262374</v>
+        <v>0.8726930868329041</v>
       </c>
       <c r="R71" t="n">
-        <v>0.001638451315211011</v>
+        <v>0.001553973401546737</v>
       </c>
       <c r="S71" t="n">
-        <v>84.86920002753057</v>
+        <v>86.45825261568487</v>
       </c>
       <c r="T71" t="n">
-        <v>78.17608057600705</v>
+        <v>78.65452959298578</v>
       </c>
       <c r="U71" t="n">
-        <v>0.1040132256982786</v>
+        <v>0.1040104121893829</v>
       </c>
       <c r="V71" t="n">
-        <v>-0.02716254906738694</v>
+        <v>-0.002838845159628196</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5268444867284677</v>
+        <v>0.4973876888581845</v>
       </c>
       <c r="B72" t="n">
-        <v>0.802379021485764</v>
+        <v>0.3651087350080488</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0135428788468208</v>
+        <v>0.1303903738078385</v>
       </c>
       <c r="D72" t="n">
-        <v>0.104647386702503</v>
+        <v>0.001009877021926631</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4301584271381315</v>
+        <v>0.0319395522246691</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09209310875897445</v>
+        <v>0.1992310508072604</v>
       </c>
       <c r="G72" t="n">
-        <v>0.00266795577841543</v>
+        <v>0.02294674120942358</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001827868621268558</v>
+        <v>0.0008817579689678486</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01543888065793553</v>
+        <v>0.001838222825820019</v>
       </c>
       <c r="J72" t="n">
-        <v>0.009177947894131388</v>
+        <v>0.002670260491434213</v>
       </c>
       <c r="K72" t="n">
-        <v>0.03796744790916834</v>
+        <v>0.2675311397587976</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9829328373287491</v>
+        <v>0.5804184334461548</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2536668357837483</v>
+        <v>0.006568758093702994</v>
       </c>
       <c r="N72" t="n">
-        <v>0.7836216531288317</v>
+        <v>0.001286375761960466</v>
       </c>
       <c r="O72" t="n">
-        <v>0.07485858154510404</v>
+        <v>0.178287244586055</v>
       </c>
       <c r="P72" t="n">
-        <v>0.180869576213297</v>
+        <v>0.188169842103825</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.8689101886760756</v>
+        <v>0.8733134035788885</v>
       </c>
       <c r="R72" t="n">
-        <v>0.001561136195335262</v>
+        <v>0.001545320361686658</v>
       </c>
       <c r="S72" t="n">
-        <v>85.46900974843268</v>
+        <v>88.00906397949683</v>
       </c>
       <c r="T72" t="n">
-        <v>78.49792653760112</v>
+        <v>79.06987135719029</v>
       </c>
       <c r="U72" t="n">
-        <v>0.10486838757917</v>
+        <v>0.1041184164816986</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.01123338872785547</v>
+        <v>-0.01296439414115314</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9756355699938366</v>
+        <v>0.9602082424507213</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7830234364285684</v>
+        <v>0.9870522746556631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.626851386666741</v>
+        <v>0.00166927139509053</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5880319956546538</v>
+        <v>0.003941098159636058</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4159068758081347</v>
+        <v>0.2314348127200934</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1981140897173377</v>
+        <v>0.2799400611177958</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03703775443902128</v>
+        <v>0.05645757402449616</v>
       </c>
       <c r="H73" t="n">
-        <v>0.003331013999913192</v>
+        <v>0.002537671003978105</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0006965401076118189</v>
+        <v>0.0001950408139922431</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005123131813906614</v>
+        <v>0.001439039888038486</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9227329106297451</v>
+        <v>0.7317490414559723</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9895965202852161</v>
+        <v>0.07142420980429642</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3107469826240165</v>
+        <v>0.1474098554940006</v>
       </c>
       <c r="N73" t="n">
-        <v>0.7730548044176893</v>
+        <v>0.03556917023344996</v>
       </c>
       <c r="O73" t="n">
-        <v>0.1124244160905901</v>
+        <v>0.02547410706161838</v>
       </c>
       <c r="P73" t="n">
-        <v>0.6115471221515746</v>
+        <v>0.4212453721912867</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.8689862318068218</v>
+        <v>0.8768602814883296</v>
       </c>
       <c r="R73" t="n">
-        <v>0.001529368934031373</v>
+        <v>0.001544622803270917</v>
       </c>
       <c r="S73" t="n">
-        <v>86.83420894901695</v>
+        <v>88.00657056622227</v>
       </c>
       <c r="T73" t="n">
-        <v>78.58223638763286</v>
+        <v>79.14000940633133</v>
       </c>
       <c r="U73" t="n">
-        <v>0.1042334935703032</v>
+        <v>0.1040737247100946</v>
       </c>
       <c r="V73" t="n">
-        <v>-0.02202194596461827</v>
+        <v>0.006658121249177446</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9289590363782567</v>
+        <v>0.9988317054007035</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1624616177466344</v>
+        <v>0.9944700199849933</v>
       </c>
       <c r="C74" t="n">
-        <v>0.008010885540506697</v>
+        <v>0.03897093679750684</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7142321364863707</v>
+        <v>0.5828293316624129</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03032464845762089</v>
+        <v>0.09389510427834408</v>
       </c>
       <c r="F74" t="n">
-        <v>0.08401276124745015</v>
+        <v>0.1775342866695744</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001578808168694396</v>
+        <v>0.0601735610490588</v>
       </c>
       <c r="H74" t="n">
-        <v>0.001116023909914339</v>
+        <v>0.01881170164988775</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0001418470142335031</v>
+        <v>0.0006024340010881634</v>
       </c>
       <c r="J74" t="n">
-        <v>0.00898531842298143</v>
+        <v>0.001329530925232938</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2884293801511487</v>
+        <v>0.7237997593329377</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9522178587358826</v>
+        <v>0.8699506001212501</v>
       </c>
       <c r="M74" t="n">
-        <v>0.1987968291987436</v>
+        <v>0.02975439720151397</v>
       </c>
       <c r="N74" t="n">
-        <v>0.6708994790552933</v>
+        <v>0.8765828291922548</v>
       </c>
       <c r="O74" t="n">
-        <v>0.082317220620195</v>
+        <v>0.0203486723142666</v>
       </c>
       <c r="P74" t="n">
-        <v>0.4845439864316656</v>
+        <v>0.9610243917409811</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.8702654870080827</v>
+        <v>0.8775403055044629</v>
       </c>
       <c r="R74" t="n">
-        <v>0.001565507472790991</v>
+        <v>0.001549305528570267</v>
       </c>
       <c r="S74" t="n">
-        <v>85.80870449371048</v>
+        <v>88.24603139817749</v>
       </c>
       <c r="T74" t="n">
-        <v>78.40311565307326</v>
+        <v>78.99499831728957</v>
       </c>
       <c r="U74" t="n">
-        <v>0.1042733219663407</v>
+        <v>0.1046787147884231</v>
       </c>
       <c r="V74" t="n">
-        <v>-0.01783341254929943</v>
+        <v>-0.0679374449022124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9425880326134753</v>
+        <v>0.0913580459571276</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7774176323083928</v>
+        <v>0.1095555084310132</v>
       </c>
       <c r="C75" t="n">
-        <v>0.006636275648438926</v>
+        <v>0.006346278977772547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7267833151008546</v>
+        <v>0.01003624323522567</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008503494122561739</v>
+        <v>0.9830298057732747</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0107838767771071</v>
+        <v>0.1612713339550498</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0007871594634484267</v>
+        <v>0.002644022236101469</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001222342745480133</v>
+        <v>0.002311194164536484</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0005245336383137053</v>
+        <v>8.112104069406961e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0009489534665729121</v>
+        <v>0.000261243228770568</v>
       </c>
       <c r="K75" t="n">
-        <v>0.00524226637997393</v>
+        <v>0.3342633389706665</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9365336799320553</v>
+        <v>0.3139434056453353</v>
       </c>
       <c r="M75" t="n">
-        <v>0.01429279224871763</v>
+        <v>0.003179959823122725</v>
       </c>
       <c r="N75" t="n">
-        <v>0.03229846911536292</v>
+        <v>7.776069587557273e-05</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.1076738456241869</v>
       </c>
       <c r="P75" t="n">
-        <v>0.2631077479028869</v>
+        <v>0.4044971210500384</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.8704716810171581</v>
+        <v>0.8779199090727043</v>
       </c>
       <c r="R75" t="n">
-        <v>0.001561619109718263</v>
+        <v>0.001567302986748294</v>
       </c>
       <c r="S75" t="n">
-        <v>85.58919414501878</v>
+        <v>85.82356301448866</v>
       </c>
       <c r="T75" t="n">
-        <v>78.5290427844496</v>
+        <v>78.44265612964226</v>
       </c>
       <c r="U75" t="n">
-        <v>0.1039972012928026</v>
+        <v>0.1040157749182495</v>
       </c>
       <c r="V75" t="n">
-        <v>-0.02469284840023224</v>
+        <v>-0.007698876206448206</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5233144306502578</v>
+        <v>0.9605334328606991</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9634717189165517</v>
+        <v>0.9538306488088135</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7146509146600665</v>
+        <v>0.05327225227559441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9409843126819898</v>
+        <v>0.3083489881327525</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4166755365528346</v>
+        <v>0.4696914678542686</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2397442537874237</v>
+        <v>0.4495603315819635</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02899535248690645</v>
+        <v>0.06713952728473083</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0002147751388881536</v>
+        <v>0.01104919297138131</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0004929876897606324</v>
+        <v>0.0001321545047664042</v>
       </c>
       <c r="J76" t="n">
-        <v>2.410728224803245e-05</v>
+        <v>0.005644559741749688</v>
       </c>
       <c r="K76" t="n">
-        <v>0.02352243049086358</v>
+        <v>0.6554469820561625</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9961323108111927</v>
+        <v>0.6416961888879902</v>
       </c>
       <c r="M76" t="n">
-        <v>0.001414699774718009</v>
+        <v>0.3757280516626564</v>
       </c>
       <c r="N76" t="n">
-        <v>0.035048577162595</v>
+        <v>0.6650675613631545</v>
       </c>
       <c r="O76" t="n">
-        <v>0.1164602591277406</v>
+        <v>0.1738168369032592</v>
       </c>
       <c r="P76" t="n">
-        <v>0.618871742758571</v>
+        <v>0.1421243324997232</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.8719537912891794</v>
+        <v>0.8789532540288663</v>
       </c>
       <c r="R76" t="n">
-        <v>0.001578254186533801</v>
+        <v>0.001563626803803251</v>
       </c>
       <c r="S76" t="n">
-        <v>84.64442038864247</v>
+        <v>86.11146979063119</v>
       </c>
       <c r="T76" t="n">
-        <v>78.61772797221128</v>
+        <v>78.4647755624738</v>
       </c>
       <c r="U76" t="n">
-        <v>0.1039253647527112</v>
+        <v>0.1045361980097813</v>
       </c>
       <c r="V76" t="n">
-        <v>-0.02576745077368629</v>
+        <v>0.0001141827041097887</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9578366146417503</v>
+        <v>0.9975883490472648</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7879850771661376</v>
+        <v>0.9887114787436158</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03003419342249192</v>
+        <v>0.05327225227559441</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05660375869577783</v>
+        <v>0.3083489881327525</v>
       </c>
       <c r="E77" t="n">
-        <v>0.421375053618632</v>
+        <v>0.4566030948817587</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2506316248118531</v>
+        <v>0.4487475298280561</v>
       </c>
       <c r="G77" t="n">
-        <v>0.031274884333008</v>
+        <v>0.06713952728473083</v>
       </c>
       <c r="H77" t="n">
-        <v>0.001180644879657621</v>
+        <v>0.01104919297138131</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0005765579731206254</v>
+        <v>0.0001321545047664042</v>
       </c>
       <c r="J77" t="n">
-        <v>0.002417256062082812</v>
+        <v>0.005644559741749688</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5704034364317609</v>
+        <v>0.6554469820561625</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9714139089716889</v>
+        <v>0.6493262455471919</v>
       </c>
       <c r="M77" t="n">
-        <v>0.002976700859428139</v>
+        <v>0.3757280516626564</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05060940413700364</v>
+        <v>0.6849598406561024</v>
       </c>
       <c r="O77" t="n">
-        <v>0.1163918478828393</v>
+        <v>0.1737258177681542</v>
       </c>
       <c r="P77" t="n">
-        <v>0.6158917921311848</v>
+        <v>0.1421243324997232</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.872090097094343</v>
+        <v>0.8813608116249891</v>
       </c>
       <c r="R77" t="n">
-        <v>0.001570242937139048</v>
+        <v>0.001563616554895328</v>
       </c>
       <c r="S77" t="n">
-        <v>85.67333518447306</v>
+        <v>86.26227193165188</v>
       </c>
       <c r="T77" t="n">
-        <v>78.44824852758087</v>
+        <v>78.47964136876871</v>
       </c>
       <c r="U77" t="n">
-        <v>0.1040513042943051</v>
+        <v>0.1045361933838147</v>
       </c>
       <c r="V77" t="n">
-        <v>-0.01586462709269356</v>
+        <v>-0.003775416576651435</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9953279666872799</v>
+        <v>0.984845913170205</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7488671798774291</v>
+        <v>0.995188903077363</v>
       </c>
       <c r="C78" t="n">
-        <v>0.589363438589988</v>
+        <v>0.09942023502182054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5336119023878994</v>
+        <v>0.3620138165052594</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4541636554983402</v>
+        <v>0.2276780367932663</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0549638161012083</v>
+        <v>0.1567476131006093</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009248810376728138</v>
+        <v>0.06144460094030993</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0001157589519250353</v>
+        <v>0.003972896306750141</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0001351475674779079</v>
+        <v>0.0005684069399798208</v>
       </c>
       <c r="J78" t="n">
-        <v>5.280047100418648e-05</v>
+        <v>0.0004055922094004063</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8225203225729903</v>
+        <v>0.3562897704216477</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9200919370069635</v>
+        <v>0.8925908076455216</v>
       </c>
       <c r="M78" t="n">
-        <v>0.2916004038008905</v>
+        <v>0.008995950694633889</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7865679273308277</v>
+        <v>0.9083843148364702</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0437910636479963</v>
+        <v>0.02137625941329581</v>
       </c>
       <c r="P78" t="n">
-        <v>0.09943022932182327</v>
+        <v>0.4853188765327637</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.8747046647102992</v>
+        <v>0.8852636163332337</v>
       </c>
       <c r="R78" t="n">
-        <v>0.001595503905320077</v>
+        <v>0.001577147656101926</v>
       </c>
       <c r="S78" t="n">
-        <v>84.69729208897135</v>
+        <v>85.61720429573032</v>
       </c>
       <c r="T78" t="n">
-        <v>78.73416858579458</v>
+        <v>78.35044504129159</v>
       </c>
       <c r="U78" t="n">
-        <v>0.1039096005255111</v>
+        <v>0.1041020664653901</v>
       </c>
       <c r="V78" t="n">
-        <v>-0.02205954564638594</v>
+        <v>-0.02607755422895801</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.934596511788517</v>
+        <v>0.4545442810770615</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001386411369153414</v>
+        <v>0.2224659294841231</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01116604245096595</v>
+        <v>0.002896840395853803</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6383382450317818</v>
+        <v>0.00100007087842835</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01094780530348496</v>
+        <v>0.9847707683445703</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1228791618607392</v>
+        <v>0.161113339751631</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002985875395937132</v>
+        <v>0.01774040713375229</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001159686053138383</v>
+        <v>0.001696757863657566</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0001821261873766117</v>
+        <v>5.075266614329914e-05</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0003061514805992498</v>
+        <v>0.001433184590475953</v>
       </c>
       <c r="K79" t="n">
-        <v>0.03104623410673756</v>
+        <v>0.2985522741071766</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9541018345852669</v>
+        <v>0.1056543019584811</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00156394589101283</v>
+        <v>0.01738049614566939</v>
       </c>
       <c r="N79" t="n">
-        <v>0.5513799465017748</v>
+        <v>0.003134785098890924</v>
       </c>
       <c r="O79" t="n">
-        <v>0.003067632978484662</v>
+        <v>0.01716567168682606</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1459296412209022</v>
+        <v>0.04963556157875604</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.8752486511570208</v>
+        <v>0.887577418479202</v>
       </c>
       <c r="R79" t="n">
-        <v>0.001551874516306639</v>
+        <v>0.001587892498197318</v>
       </c>
       <c r="S79" t="n">
-        <v>86.42206887397074</v>
+        <v>85.48569713650019</v>
       </c>
       <c r="T79" t="n">
-        <v>78.51773936659372</v>
+        <v>78.34600052307086</v>
       </c>
       <c r="U79" t="n">
-        <v>0.1039588256711451</v>
+        <v>0.1040376264424221</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.01743642402038508</v>
+        <v>-0.01629306004480791</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.2314701714963803</v>
+        <v>0.2204381372221942</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8217066067195539</v>
+        <v>0.9861552357931348</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2043120511753952</v>
+        <v>0.001457337417130795</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1328519974208679</v>
+        <v>0.538605628007273</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4941285618827416</v>
+        <v>0.142526382536523</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05155575501233563</v>
+        <v>0.1681495422041058</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008859833043918363</v>
+        <v>0.02682983127333458</v>
       </c>
       <c r="H80" t="n">
-        <v>0.000367192288817984</v>
+        <v>0.00284466228487679</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0001580317400683509</v>
+        <v>0.000873986830980025</v>
       </c>
       <c r="J80" t="n">
-        <v>9.749163182235219e-05</v>
+        <v>0.005126160040266779</v>
       </c>
       <c r="K80" t="n">
-        <v>0.002084530987297079</v>
+        <v>0.4516913617278953</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9321391147116561</v>
+        <v>0.899415014982664</v>
       </c>
       <c r="M80" t="n">
-        <v>0.001235546861873471</v>
+        <v>0.3519432253788904</v>
       </c>
       <c r="N80" t="n">
-        <v>0.000375084719987033</v>
+        <v>0.8737482284318872</v>
       </c>
       <c r="O80" t="n">
-        <v>0.04310961877691029</v>
+        <v>0.02634270711044955</v>
       </c>
       <c r="P80" t="n">
-        <v>0.1096519583452301</v>
+        <v>0.02028435565697183</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.8758850607696951</v>
+        <v>0.8888140099229476</v>
       </c>
       <c r="R80" t="n">
-        <v>0.001551872852158046</v>
+        <v>0.001735992206148232</v>
       </c>
       <c r="S80" t="n">
-        <v>86.64383828786178</v>
+        <v>84.31889197870844</v>
       </c>
       <c r="T80" t="n">
-        <v>78.54231638408949</v>
+        <v>78.25472121961226</v>
       </c>
       <c r="U80" t="n">
-        <v>0.1039213561798732</v>
+        <v>0.1042446711373971</v>
       </c>
       <c r="V80" t="n">
-        <v>-0.01715876902542762</v>
+        <v>-0.04595435444782103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9966390167420829</v>
+        <v>0.09415595447994984</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8860146454947109</v>
+        <v>0.08103815365881661</v>
       </c>
       <c r="C81" t="n">
-        <v>0.009749395227590885</v>
+        <v>0.04727725537338391</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5971552187291269</v>
+        <v>0.00348144036914326</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3229906370341692</v>
+        <v>0.6984102228394095</v>
       </c>
       <c r="F81" t="n">
-        <v>0.388621708003019</v>
+        <v>0.1138953019468322</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06031624533324819</v>
+        <v>0.004021817451919929</v>
       </c>
       <c r="H81" t="n">
-        <v>0.006181004954664296</v>
+        <v>0.001265694508811104</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0005048305212547458</v>
+        <v>0.00112477936182811</v>
       </c>
       <c r="J81" t="n">
-        <v>0.009081368966576419</v>
+        <v>0.001339382497411392</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9538782303196769</v>
+        <v>0.6521939742811743</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9895682684168847</v>
+        <v>0.04961903048189054</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2240713276507479</v>
+        <v>0.001075086272818979</v>
       </c>
       <c r="N81" t="n">
-        <v>0.6506845054446271</v>
+        <v>0.001064970062585879</v>
       </c>
       <c r="O81" t="n">
-        <v>0.112648746141684</v>
+        <v>0.02018339078483832</v>
       </c>
       <c r="P81" t="n">
-        <v>0.8333083561235879</v>
+        <v>0.1843901254960935</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.8764187136138528</v>
+        <v>0.8888682674557061</v>
       </c>
       <c r="R81" t="n">
-        <v>0.001558996924657976</v>
+        <v>0.001592964832420381</v>
       </c>
       <c r="S81" t="n">
-        <v>86.48026839669052</v>
+        <v>84.76200933162332</v>
       </c>
       <c r="T81" t="n">
-        <v>78.53998460215614</v>
+        <v>78.23881122125334</v>
       </c>
       <c r="U81" t="n">
-        <v>0.1044760331970382</v>
+        <v>0.1040577487802842</v>
       </c>
       <c r="V81" t="n">
-        <v>-0.01863743932770362</v>
+        <v>-0.008144774710741907</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9983328332552187</v>
+        <v>0.9603587626585711</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9376973071980056</v>
+        <v>0.9870522746556631</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02597352150420817</v>
+        <v>0.02235628393495964</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9914141277348789</v>
+        <v>0.2153828596224815</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3029970346172439</v>
+        <v>0.4620120237999358</v>
       </c>
       <c r="F82" t="n">
-        <v>0.222485014444027</v>
+        <v>0.3857726963055362</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001661267792815203</v>
+        <v>0.07152606805440843</v>
       </c>
       <c r="H82" t="n">
-        <v>0.003008515353999436</v>
+        <v>0.002588103634876885</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0004801861335113</v>
+        <v>0.0002021688237152357</v>
       </c>
       <c r="J82" t="n">
-        <v>1.235788866036161e-05</v>
+        <v>0.0007731077545068683</v>
       </c>
       <c r="K82" t="n">
-        <v>0.07971442873764234</v>
+        <v>0.0128484949264337</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9829284485861776</v>
+        <v>0.9292302246339332</v>
       </c>
       <c r="M82" t="n">
-        <v>0.001005496929049525</v>
+        <v>0.148157774189361</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4614165209553858</v>
+        <v>0.8731361650723548</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01404988523907631</v>
+        <v>0.02126543369170179</v>
       </c>
       <c r="P82" t="n">
-        <v>0.5240161153680769</v>
+        <v>0.4178306242536379</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.879134905772361</v>
+        <v>0.8922693563421107</v>
       </c>
       <c r="R82" t="n">
-        <v>0.001677204236191886</v>
+        <v>0.0015779422878952</v>
       </c>
       <c r="S82" t="n">
-        <v>84.31429105811793</v>
+        <v>85.62710103884665</v>
       </c>
       <c r="T82" t="n">
-        <v>78.66575072530496</v>
+        <v>78.3440956109998</v>
       </c>
       <c r="U82" t="n">
-        <v>0.1040265866091651</v>
+        <v>0.1040516354112393</v>
       </c>
       <c r="V82" t="n">
-        <v>-0.03019839807067424</v>
+        <v>-0.01820738509228397</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4870412535249169</v>
+        <v>0.2213276535553793</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9518679178327868</v>
+        <v>0.1000283405936447</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6247953556085027</v>
+        <v>0.09935449777596922</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8607337480602232</v>
+        <v>0.2257775966089262</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4147572558446885</v>
+        <v>0.707415552083641</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08836230697858488</v>
+        <v>0.15776412288906</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03982371874023432</v>
+        <v>0.01306781107287591</v>
       </c>
       <c r="H83" t="n">
-        <v>0.005883199236926343</v>
+        <v>0.00141911790395793</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0003121251728280851</v>
+        <v>1.793655656357732e-05</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0007819264099686976</v>
+        <v>0.0004070026425482759</v>
       </c>
       <c r="K83" t="n">
-        <v>0.536488762805853</v>
+        <v>0.6500922593647714</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9838866959044634</v>
+        <v>0.03947433300766029</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0006869858897287615</v>
+        <v>0.0001278020252522714</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4747031039826321</v>
+        <v>3.62402581545149e-05</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1208408877184534</v>
+        <v>0.006222742268292397</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7427710473407336</v>
+        <v>0.4107893695287265</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8794057528505363</v>
+        <v>0.90064822604554</v>
       </c>
       <c r="R83" t="n">
-        <v>0.001574222374575479</v>
+        <v>0.001632806371040573</v>
       </c>
       <c r="S83" t="n">
-        <v>86.5586101434921</v>
+        <v>84.39291989192535</v>
       </c>
       <c r="T83" t="n">
-        <v>78.4996610848529</v>
+        <v>78.28045721007832</v>
       </c>
       <c r="U83" t="n">
-        <v>0.1041538021776631</v>
+        <v>0.1039888524095031</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.01660801342884401</v>
+        <v>-0.01413825547144284</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9976846795080154</v>
+        <v>0.9981039235545554</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8708227364441526</v>
+        <v>0.9879840927828485</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02272511184647288</v>
+        <v>0.03320190228175186</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5880319956546538</v>
+        <v>0.08111856830753737</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4364474282294184</v>
+        <v>0.4599789421137329</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1974112818158718</v>
+        <v>0.0108088784912139</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04689319918284735</v>
+        <v>0.01602682970720163</v>
       </c>
       <c r="H84" t="n">
-        <v>7.095662236202309e-05</v>
+        <v>0.001713662773612989</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0001851775295899429</v>
+        <v>0.00476091198652933</v>
       </c>
       <c r="J84" t="n">
-        <v>0.002502099493603123</v>
+        <v>4.702730325609151e-05</v>
       </c>
       <c r="K84" t="n">
-        <v>0.8506589507381555</v>
+        <v>0.7151401052671754</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9842305717503341</v>
+        <v>0.6494811613242709</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3654249358024676</v>
+        <v>0.05805576242208892</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6597202688573821</v>
+        <v>0.8909392340860507</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01121685608336426</v>
+        <v>0.02615880433960045</v>
       </c>
       <c r="P84" t="n">
-        <v>0.14901613079281</v>
+        <v>0.2049533225377844</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.8845589997207436</v>
+        <v>0.904536797353768</v>
       </c>
       <c r="R84" t="n">
-        <v>0.001622830603134804</v>
+        <v>0.001558127664659782</v>
       </c>
       <c r="S84" t="n">
-        <v>85.75548488090791</v>
+        <v>87.13819472424858</v>
       </c>
       <c r="T84" t="n">
-        <v>78.38943736148263</v>
+        <v>78.77751256964108</v>
       </c>
       <c r="U84" t="n">
-        <v>0.1039993764850436</v>
+        <v>0.1041596298348263</v>
       </c>
       <c r="V84" t="n">
-        <v>-0.02044265424564468</v>
+        <v>-0.004087989556963868</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9315694603155101</v>
+        <v>0.9955332644929921</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1624616177466344</v>
+        <v>0.9733834998420422</v>
       </c>
       <c r="C85" t="n">
-        <v>0.008010885540506697</v>
+        <v>0.0156324966259564</v>
       </c>
       <c r="D85" t="n">
-        <v>0.875480536540025</v>
+        <v>0.1967961170873236</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04472259129656114</v>
+        <v>0.4463708531571472</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0834190209076323</v>
+        <v>0.3909540334519953</v>
       </c>
       <c r="G85" t="n">
-        <v>0.001578808168694396</v>
+        <v>0.02894362873521459</v>
       </c>
       <c r="H85" t="n">
-        <v>0.001125014528906611</v>
+        <v>0.000763702341199891</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0001418470142335031</v>
+        <v>2.995773920399985e-05</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0106629896433339</v>
+        <v>0.0002933662733766747</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2860400500607322</v>
+        <v>0.2670793981874372</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9645639949722999</v>
+        <v>0.6561044042181662</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1987968291987436</v>
+        <v>0.01133815121644544</v>
       </c>
       <c r="N85" t="n">
-        <v>0.6712101687621239</v>
+        <v>0.680407633831941</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04713207315538445</v>
+        <v>0.002609580418429215</v>
       </c>
       <c r="P85" t="n">
-        <v>0.6332586560141468</v>
+        <v>0.2144522870682599</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.8852626367250904</v>
+        <v>0.9057030576484703</v>
       </c>
       <c r="R85" t="n">
-        <v>0.001641450005009957</v>
+        <v>0.00155615402636926</v>
       </c>
       <c r="S85" t="n">
-        <v>84.74677316368594</v>
+        <v>87.55977860547991</v>
       </c>
       <c r="T85" t="n">
-        <v>78.65306359779166</v>
+        <v>78.88910013103751</v>
       </c>
       <c r="U85" t="n">
-        <v>0.1043350391891885</v>
+        <v>0.1039612153431178</v>
       </c>
       <c r="V85" t="n">
-        <v>-0.02762538753143343</v>
+        <v>-0.009213570148267396</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9417870113637324</v>
+        <v>0.9603587626585711</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7622409680276624</v>
+        <v>0.9870487450204822</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03204962520810786</v>
+        <v>0.04687951805727939</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06625693937515881</v>
+        <v>0.2153828596224815</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4807648686477184</v>
+        <v>0.6854544357102352</v>
       </c>
       <c r="F86" t="n">
-        <v>0.06890104718369594</v>
+        <v>0.3857726963055362</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02870976551290236</v>
+        <v>0.02515848555469437</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0004138596307082362</v>
+        <v>0.009311656423929966</v>
       </c>
       <c r="I86" t="n">
-        <v>0.000174110406565092</v>
+        <v>0.0002139632526541528</v>
       </c>
       <c r="J86" t="n">
-        <v>0.002020999592974748</v>
+        <v>0.001932642105400651</v>
       </c>
       <c r="K86" t="n">
-        <v>0.04196968379182169</v>
+        <v>0.7047486271893021</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9540964546171957</v>
+        <v>0.9292302246339332</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0003853329298932895</v>
+        <v>0.1474098554940006</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4446650792125392</v>
+        <v>0.8731361650723548</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03634805017676416</v>
+        <v>0.02622637459790434</v>
       </c>
       <c r="P86" t="n">
-        <v>0.06039110501119807</v>
+        <v>0.3955107392563841</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.8864797439193142</v>
+        <v>0.9072855425882483</v>
       </c>
       <c r="R86" t="n">
-        <v>0.001643492705622119</v>
+        <v>0.001561265905960322</v>
       </c>
       <c r="S86" t="n">
-        <v>84.80891222060335</v>
+        <v>86.77456712625327</v>
       </c>
       <c r="T86" t="n">
-        <v>78.57624686085225</v>
+        <v>78.71033973732004</v>
       </c>
       <c r="U86" t="n">
-        <v>0.1039939734045783</v>
+        <v>0.1043397760760811</v>
       </c>
       <c r="V86" t="n">
-        <v>0.001710102191552321</v>
+        <v>-0.01869680811194169</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8908446716308478</v>
+        <v>0.4558632677253281</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9690743065180466</v>
+        <v>0.2224659294841231</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6368198660779292</v>
+        <v>0.002896840395853803</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9760857826597802</v>
+        <v>7.9924954079805e-05</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2011859126796026</v>
+        <v>0.9847707683445703</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3984208529319085</v>
+        <v>0.1623840225201131</v>
       </c>
       <c r="G87" t="n">
-        <v>0.005710764425518733</v>
+        <v>0.01773513897045359</v>
       </c>
       <c r="H87" t="n">
-        <v>0.009243646780522849</v>
+        <v>0.001696757863657566</v>
       </c>
       <c r="I87" t="n">
-        <v>3.71269376527896e-05</v>
+        <v>5.075266614329914e-05</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0006472693432681767</v>
+        <v>0.001322861755802583</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5634237684948222</v>
+        <v>0.2985522741071766</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9764095505717006</v>
+        <v>0.1242990995305919</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0004643913524077536</v>
+        <v>0.01738049614566939</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3601695210288686</v>
+        <v>0.003134785098890924</v>
       </c>
       <c r="O87" t="n">
-        <v>0.05791428720180272</v>
+        <v>0.01716567168682606</v>
       </c>
       <c r="P87" t="n">
-        <v>0.6738747512067683</v>
+        <v>0.04963556157875604</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.886882834053706</v>
+        <v>0.9106688043348291</v>
       </c>
       <c r="R87" t="n">
-        <v>0.001616777540952146</v>
+        <v>0.001572481441068334</v>
       </c>
       <c r="S87" t="n">
-        <v>86.26239192678503</v>
+        <v>86.84729844810481</v>
       </c>
       <c r="T87" t="n">
-        <v>78.45892585493506</v>
+        <v>78.80566243085335</v>
       </c>
       <c r="U87" t="n">
-        <v>0.1042617289795707</v>
+        <v>0.1040335956835352</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.02620166011844083</v>
+        <v>-0.01627047396602947</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8619315550842439</v>
+        <v>0.06077286756214248</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9133630559366164</v>
+        <v>0.2228979776151659</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02500155900979383</v>
+        <v>0.0213676553171461</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7014459519551098</v>
+        <v>0.003148258246650357</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3334461859614908</v>
+        <v>0.9829366242993602</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1116809542243438</v>
+        <v>0.1571588822017053</v>
       </c>
       <c r="G88" t="n">
-        <v>0.006145518299959674</v>
+        <v>0.01661099863665681</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0006881511064665516</v>
+        <v>0.0003533607639711724</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0001314218508686501</v>
+        <v>0.0003499718323793517</v>
       </c>
       <c r="J88" t="n">
-        <v>0.008995116809975973</v>
+        <v>0.001385166573840938</v>
       </c>
       <c r="K88" t="n">
-        <v>0.4855258758706847</v>
+        <v>0.651959909950631</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9521586210829259</v>
+        <v>0.04151751390740227</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0006635102271240784</v>
+        <v>0.0192367209889901</v>
       </c>
       <c r="N88" t="n">
-        <v>0.6254722006789482</v>
+        <v>0.001234071546428176</v>
       </c>
       <c r="O88" t="n">
-        <v>0.08237254199110457</v>
+        <v>0.04350973204059871</v>
       </c>
       <c r="P88" t="n">
-        <v>0.4823404187120062</v>
+        <v>0.394284021645928</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.8876549511728934</v>
+        <v>0.9132958152687096</v>
       </c>
       <c r="R88" t="n">
-        <v>0.001609615126966674</v>
+        <v>0.001565947124351362</v>
       </c>
       <c r="S88" t="n">
-        <v>84.82384402903634</v>
+        <v>87.33082709778012</v>
       </c>
       <c r="T88" t="n">
-        <v>78.60492572041083</v>
+        <v>78.86890573183868</v>
       </c>
       <c r="U88" t="n">
-        <v>0.1042575969830717</v>
+        <v>0.1039978570076655</v>
       </c>
       <c r="V88" t="n">
-        <v>-0.02440400654448492</v>
+        <v>-0.006095791941106488</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9935539609933542</v>
+        <v>0.9948436166133414</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9803549736634261</v>
+        <v>0.9891434006210181</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6175236139477608</v>
+        <v>0.02178797212132776</v>
       </c>
       <c r="D89" t="n">
-        <v>0.88762472546126</v>
+        <v>0.3555057560984567</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4676212443789541</v>
+        <v>0.6982860848491452</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2916624706615326</v>
+        <v>0.1648731340762802</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03750377515210838</v>
+        <v>0.02437908303547464</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0003594169131083265</v>
+        <v>0.002304755253004931</v>
       </c>
       <c r="I89" t="n">
-        <v>7.323926783387846e-05</v>
+        <v>0.0001336590029691567</v>
       </c>
       <c r="J89" t="n">
-        <v>0.001059597134856898</v>
+        <v>0.005680683209097945</v>
       </c>
       <c r="K89" t="n">
-        <v>0.005121809568136237</v>
+        <v>0.7046564661097191</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9844011094758413</v>
+        <v>0.5681676536150365</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03068568087716046</v>
+        <v>0.003379105230614819</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1201289146574192</v>
+        <v>0.01134563271861377</v>
       </c>
       <c r="O89" t="n">
-        <v>0.1213468802747051</v>
+        <v>0.1750754061847922</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2803989667983241</v>
+        <v>0.1012638263407764</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.8885328439676581</v>
+        <v>0.9134810912494147</v>
       </c>
       <c r="R89" t="n">
-        <v>0.001642223380830051</v>
+        <v>0.001568157076450548</v>
       </c>
       <c r="S89" t="n">
-        <v>86.13330916914225</v>
+        <v>86.92589656130725</v>
       </c>
       <c r="T89" t="n">
-        <v>78.53509175125834</v>
+        <v>78.80098565934706</v>
       </c>
       <c r="U89" t="n">
-        <v>0.1039531554473551</v>
+        <v>0.1042179349009053</v>
       </c>
       <c r="V89" t="n">
-        <v>-0.02653600653200892</v>
+        <v>-0.01182280358634789</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9972731998285279</v>
+        <v>0.9603587626585711</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9546059424128328</v>
+        <v>0.9790074997955469</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6511374083092474</v>
+        <v>0.02256704667528623</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9933928844105692</v>
+        <v>0.2146116834150624</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4182804486248396</v>
+        <v>0.4620120237999358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2233103227375298</v>
+        <v>0.1507223252251399</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03608385959491679</v>
+        <v>0.07152606805440843</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0002542392006414115</v>
+        <v>0.002588103634876885</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0005061637962078075</v>
+        <v>0.0002021688237152357</v>
       </c>
       <c r="J90" t="n">
-        <v>2.179097285266929e-05</v>
+        <v>0.0007731077545068683</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5283078285059861</v>
+        <v>0.0128484949264337</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9966238004668687</v>
+        <v>0.9292302246339332</v>
       </c>
       <c r="M90" t="n">
-        <v>0.002588725736474667</v>
+        <v>0.1351763041889439</v>
       </c>
       <c r="N90" t="n">
-        <v>0.04555547504735155</v>
+        <v>0.8792346027251364</v>
       </c>
       <c r="O90" t="n">
-        <v>0.1208914741841154</v>
+        <v>0.02126543369170179</v>
       </c>
       <c r="P90" t="n">
-        <v>0.7703666137637999</v>
+        <v>0.4171312278527431</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.8896488461584809</v>
+        <v>0.9145667075735645</v>
       </c>
       <c r="R90" t="n">
-        <v>0.001656257542394746</v>
+        <v>0.001705330038673153</v>
       </c>
       <c r="S90" t="n">
-        <v>86.0169804018218</v>
+        <v>84.98069837017502</v>
       </c>
       <c r="T90" t="n">
-        <v>78.44598999024934</v>
+        <v>78.35923863766462</v>
       </c>
       <c r="U90" t="n">
-        <v>0.1039271829300295</v>
+        <v>0.104051614131793</v>
       </c>
       <c r="V90" t="n">
-        <v>-0.02657014789592164</v>
+        <v>-0.01010974584901177</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9863515950504312</v>
+        <v>0.05521659813575879</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9634499286595543</v>
+        <v>0.2019467967723856</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7158305328953892</v>
+        <v>0.0450175165341265</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9037199398314271</v>
+        <v>0.003233679612806326</v>
       </c>
       <c r="E91" t="n">
-        <v>0.497146590731654</v>
+        <v>0.003913672449456798</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3010805415885018</v>
+        <v>0.09351028818481492</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1901529774041899</v>
+        <v>0.005042209692662235</v>
       </c>
       <c r="H91" t="n">
-        <v>0.007751138227383939</v>
+        <v>0.0003500138474022609</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0001352317518723533</v>
+        <v>3.023489957178441e-06</v>
       </c>
       <c r="J91" t="n">
-        <v>0.00249961112609036</v>
+        <v>0.000266310268214237</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5338093029438991</v>
+        <v>0.6848167435195801</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9971286047897973</v>
+        <v>0.6737215274554496</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0007630145917740666</v>
+        <v>0.01134115237282703</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2671773056182943</v>
+        <v>0.001235059940850196</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0680521969039756</v>
+        <v>0.02554953896798819</v>
       </c>
       <c r="P91" t="n">
-        <v>0.6303735101631265</v>
+        <v>0.9947405599441841</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.8896843276647624</v>
+        <v>0.9159423721245125</v>
       </c>
       <c r="R91" t="n">
-        <v>0.001623442168539028</v>
+        <v>0.00171444571323011</v>
       </c>
       <c r="S91" t="n">
-        <v>86.30481492990103</v>
+        <v>84.9283844587145</v>
       </c>
       <c r="T91" t="n">
-        <v>78.51252334192198</v>
+        <v>78.3750372070478</v>
       </c>
       <c r="U91" t="n">
-        <v>0.1042786616873294</v>
+        <v>0.1039442654931417</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.02277302077862526</v>
+        <v>-0.01844268880780785</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9951570131242832</v>
+        <v>0.3572171342453217</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9206900480174982</v>
+        <v>0.9735766133870556</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00184121602054212</v>
+        <v>0.09690823261881173</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8869612464506118</v>
+        <v>0.1820557474889171</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4696320064705868</v>
+        <v>0.09008979461325434</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1785798297703577</v>
+        <v>0.2374836774698273</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05874734968298529</v>
+        <v>0.02551435491374773</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0003683110409992593</v>
+        <v>0.0004296511390126187</v>
       </c>
       <c r="I92" t="n">
-        <v>0.009387784362594694</v>
+        <v>0.0001255362337662836</v>
       </c>
       <c r="J92" t="n">
-        <v>0.001059597134856898</v>
+        <v>0.002735787538112171</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5109587555379219</v>
+        <v>0.6689859131182814</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9838879615467885</v>
+        <v>0.9073393144578134</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01748545237990989</v>
+        <v>0.001866930680393564</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1252215881123458</v>
+        <v>0.8699978126024731</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04353233378181129</v>
+        <v>0.01861507506209239</v>
       </c>
       <c r="P92" t="n">
-        <v>0.148500345639551</v>
+        <v>0.1417058325939608</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.8900438119626055</v>
+        <v>0.9190357292251399</v>
       </c>
       <c r="R92" t="n">
-        <v>0.001598823405674978</v>
+        <v>0.001695371958408274</v>
       </c>
       <c r="S92" t="n">
-        <v>85.01006596859838</v>
+        <v>85.17607818246715</v>
       </c>
       <c r="T92" t="n">
-        <v>78.78593083630031</v>
+        <v>78.4695342763124</v>
       </c>
       <c r="U92" t="n">
-        <v>0.1042943536427862</v>
+        <v>0.1040417583557785</v>
       </c>
       <c r="V92" t="n">
-        <v>-0.02480455091884582</v>
+        <v>-0.02309166064953948</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9905490201337648</v>
+        <v>0.0956651468868138</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7793443497482655</v>
+        <v>0.1923124130010125</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01764417170982758</v>
+        <v>0.02178797212132776</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1071334181352723</v>
+        <v>0.188704337538784</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4415736713776878</v>
+        <v>0.2247625712640845</v>
       </c>
       <c r="F93" t="n">
-        <v>0.925044511149369</v>
+        <v>0.1220724321354746</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0009076539905796864</v>
+        <v>0.01696640758522286</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0002947904009264918</v>
+        <v>0.002301130389069125</v>
       </c>
       <c r="I93" t="n">
-        <v>2.634693300341595e-05</v>
+        <v>1.630722214289416e-05</v>
       </c>
       <c r="J93" t="n">
-        <v>6.473976822131411e-05</v>
+        <v>0.0006808027077531515</v>
       </c>
       <c r="K93" t="n">
-        <v>0.4052994067667572</v>
+        <v>0.7061108113503614</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9497224025303098</v>
+        <v>0.04294595507014204</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2415758173799455</v>
+        <v>0.00309281232025467</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01805892466072267</v>
+        <v>0.01324052143262727</v>
       </c>
       <c r="O93" t="n">
-        <v>0.1119021409789419</v>
+        <v>0.01918328177738157</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1055254759494864</v>
+        <v>0.4100723717871997</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.8903940269417706</v>
+        <v>0.9209535063243128</v>
       </c>
       <c r="R93" t="n">
-        <v>0.001577296346570439</v>
+        <v>0.001610558274001222</v>
       </c>
       <c r="S93" t="n">
-        <v>85.14630268713292</v>
+        <v>85.37428763497412</v>
       </c>
       <c r="T93" t="n">
-        <v>78.82644402260782</v>
+        <v>78.40974114585372</v>
       </c>
       <c r="U93" t="n">
-        <v>0.1039126680678261</v>
+        <v>0.1040309826292085</v>
       </c>
       <c r="V93" t="n">
-        <v>-0.02096413568311131</v>
+        <v>-0.01097678393679376</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.378541091619645</v>
+        <v>0.495937655634095</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01885737068654075</v>
+        <v>0.4279667359020987</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6239300305205486</v>
+        <v>0.1303768222018483</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6074544845990005</v>
+        <v>0.1600160648628304</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02807607703534917</v>
+        <v>0.7450292230144351</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02763340123546165</v>
+        <v>0.1611654669097312</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006930082114672435</v>
+        <v>0.02582437677860216</v>
       </c>
       <c r="H94" t="n">
-        <v>0.00123737917270126</v>
+        <v>0.002464999484821746</v>
       </c>
       <c r="I94" t="n">
-        <v>2.341252794945818e-05</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01227302607949333</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0528789197114608</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9770184079422691</v>
+        <v>0.5778285950665716</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0127417612764649</v>
+        <v>0.1496694895654644</v>
       </c>
       <c r="N94" t="n">
-        <v>0.6292884960294873</v>
+        <v>0.001285123127667768</v>
       </c>
       <c r="O94" t="n">
-        <v>0.1185430039406516</v>
+        <v>0.1678343512585297</v>
       </c>
       <c r="P94" t="n">
-        <v>0.6273665840293445</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.8909871742026346</v>
+        <v>0.9282488174755344</v>
       </c>
       <c r="R94" t="n">
-        <v>0.00159166787818004</v>
+        <v>0.001697357839586697</v>
       </c>
       <c r="S94" t="n">
-        <v>85.21757151177545</v>
+        <v>86.33167388586975</v>
       </c>
       <c r="T94" t="n">
-        <v>78.90106920986747</v>
+        <v>78.62572305814872</v>
       </c>
       <c r="U94" t="n">
-        <v>0.1043938003105028</v>
+        <v>0.1041113677422097</v>
       </c>
       <c r="V94" t="n">
-        <v>-0.02545913980977664</v>
+        <v>-0.01284678849290064</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8967422008801612</v>
+        <v>0.9975513677526149</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8025233228536157</v>
+        <v>0.9889908537640714</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6584198251386901</v>
+        <v>0.02147149336598742</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9062098692285488</v>
+        <v>0.03514007701252908</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4188103894676234</v>
+        <v>0.9713563622518234</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2774808991138768</v>
+        <v>0.1539190022930357</v>
       </c>
       <c r="G95" t="n">
-        <v>0.001672876681462697</v>
+        <v>0.003378459792938835</v>
       </c>
       <c r="H95" t="n">
-        <v>0.001838812832325345</v>
+        <v>0.002438136441450967</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0005103606795130288</v>
+        <v>0.000337474562087679</v>
       </c>
       <c r="J95" t="n">
-        <v>0.002366446547119257</v>
+        <v>0.004710693830291421</v>
       </c>
       <c r="K95" t="n">
-        <v>0.003749807208324931</v>
+        <v>0.6514456352424338</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9365404489001327</v>
+        <v>0.8956165067855499</v>
       </c>
       <c r="M95" t="n">
-        <v>0.006985105759944571</v>
+        <v>0.009464615703469445</v>
       </c>
       <c r="N95" t="n">
-        <v>0.6375683674089987</v>
+        <v>0.6854727391609658</v>
       </c>
       <c r="O95" t="n">
-        <v>0.05926836023041617</v>
+        <v>0.01676372209741742</v>
       </c>
       <c r="P95" t="n">
-        <v>0.5744378322533874</v>
+        <v>0.00668088026171923</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.893278382182134</v>
+        <v>0.9282863899851128</v>
       </c>
       <c r="R95" t="n">
-        <v>0.001579237729268465</v>
+        <v>0.001699599461644266</v>
       </c>
       <c r="S95" t="n">
-        <v>85.26377154773786</v>
+        <v>86.34290983568911</v>
       </c>
       <c r="T95" t="n">
-        <v>78.840577351462</v>
+        <v>78.63203902201865</v>
       </c>
       <c r="U95" t="n">
-        <v>0.1040711113953364</v>
+        <v>0.1041948710650889</v>
       </c>
       <c r="V95" t="n">
-        <v>-0.03239993343648276</v>
+        <v>-0.01021143087665909</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9772677670504366</v>
+        <v>0.9487172342279846</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7512667419887524</v>
+        <v>0.9982653782827976</v>
       </c>
       <c r="C96" t="n">
-        <v>0.03395345575264118</v>
+        <v>0.0003621086753371593</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5211444607236341</v>
+        <v>0.02700874782415486</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4556373166554045</v>
+        <v>0.7466196063570429</v>
       </c>
       <c r="F96" t="n">
-        <v>0.973218996610753</v>
+        <v>0.1601649597741591</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04420459610422164</v>
+        <v>0.0228801509161319</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0001178385934838724</v>
+        <v>0.001654200890084248</v>
       </c>
       <c r="I96" t="n">
-        <v>0.00023343115011902</v>
+        <v>0.0001420960824308884</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0009881169507609852</v>
+        <v>0.004801033308224116</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7836437823294315</v>
+        <v>0.6746522462414208</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9896428444879325</v>
+        <v>0.04041950634055685</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3048150890227528</v>
+        <v>0.3921220730690305</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7959696998308337</v>
+        <v>0.659333936117631</v>
       </c>
       <c r="O96" t="n">
-        <v>0.1217342641422377</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P96" t="n">
-        <v>0.2972957819658721</v>
+        <v>0.4198866684865211</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.894188724000897</v>
+        <v>0.9338158999697286</v>
       </c>
       <c r="R96" t="n">
-        <v>0.001647436538668202</v>
+        <v>0.001692188709371364</v>
       </c>
       <c r="S96" t="n">
-        <v>85.23637893128998</v>
+        <v>86.59683286077176</v>
       </c>
       <c r="T96" t="n">
-        <v>78.7762076441734</v>
+        <v>78.65305298907545</v>
       </c>
       <c r="U96" t="n">
-        <v>0.1039475166786244</v>
+        <v>0.1041623696406374</v>
       </c>
       <c r="V96" t="n">
-        <v>-0.0168837092968905</v>
+        <v>0.007695721887581088</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9765441115023963</v>
+        <v>0.4998564648175186</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9690942038323896</v>
+        <v>0.3651577284807167</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1176473395577796</v>
+        <v>0.001345093610770315</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5730522569261006</v>
+        <v>8.821826370991668e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4411831874014272</v>
+        <v>0.1408831849503565</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1965777093074866</v>
+        <v>0.1630610391577623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1603759439982008</v>
+        <v>0.06479390676032749</v>
       </c>
       <c r="H97" t="n">
-        <v>0.003331013999913192</v>
+        <v>0.002689609654581108</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0006552111327350948</v>
+        <v>8.846190877439164e-05</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0009961903694324552</v>
+        <v>0.002559937655605575</v>
       </c>
       <c r="K97" t="n">
-        <v>0.9550237877990976</v>
+        <v>0.2213261783369412</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9895965202852161</v>
+        <v>0.5990394513595557</v>
       </c>
       <c r="M97" t="n">
-        <v>0.3176200709110527</v>
+        <v>0.006568758093702994</v>
       </c>
       <c r="N97" t="n">
-        <v>0.7728880967875382</v>
+        <v>8.371990564995163e-05</v>
       </c>
       <c r="O97" t="n">
-        <v>0.1215377635474033</v>
+        <v>0.02730220536948627</v>
       </c>
       <c r="P97" t="n">
-        <v>0.7656651373124084</v>
+        <v>0.1833809176232105</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.8957027041950825</v>
+        <v>0.9348100313580023</v>
       </c>
       <c r="R97" t="n">
-        <v>0.001584806977650385</v>
+        <v>0.001705652306898838</v>
       </c>
       <c r="S97" t="n">
-        <v>85.28954666778318</v>
+        <v>86.62106231120686</v>
       </c>
       <c r="T97" t="n">
-        <v>78.81004809397578</v>
+        <v>78.6504914136068</v>
       </c>
       <c r="U97" t="n">
-        <v>0.1040808078667118</v>
+        <v>0.1041164285496569</v>
       </c>
       <c r="V97" t="n">
-        <v>-0.01870158219533429</v>
+        <v>-0.01330153455777906</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.944138612507082</v>
+        <v>0.2213276535553793</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9573318082451278</v>
+        <v>0.1029364306523199</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1511292597436758</v>
+        <v>0.1646444198024081</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5648673035219689</v>
+        <v>0.2068656309277803</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4354948699984078</v>
+        <v>0.707415552083641</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4291156029629829</v>
+        <v>0.15776412288906</v>
       </c>
       <c r="G98" t="n">
-        <v>0.06041095282857468</v>
+        <v>0.01306781107287591</v>
       </c>
       <c r="H98" t="n">
-        <v>0.001222225231101063</v>
+        <v>0.001277367704165995</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01027821686945577</v>
+        <v>1.793655656357732e-05</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0009487457628615712</v>
+        <v>0.0004867448275301537</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5215707982233198</v>
+        <v>0.6500922593647714</v>
       </c>
       <c r="L98" t="n">
-        <v>0.9574181473263239</v>
+        <v>0.03947433300766029</v>
       </c>
       <c r="M98" t="n">
-        <v>0.003620787184574011</v>
+        <v>0.0003535727278782151</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01541759926842153</v>
+        <v>3.62402581545149e-05</v>
       </c>
       <c r="O98" t="n">
-        <v>0.04110856933403929</v>
+        <v>0.006408668006579473</v>
       </c>
       <c r="P98" t="n">
-        <v>0.5562284444012642</v>
+        <v>0.4098637122039485</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.8959034864081731</v>
+        <v>0.9348770288540802</v>
       </c>
       <c r="R98" t="n">
-        <v>0.001625314583065679</v>
+        <v>0.001685133914912818</v>
       </c>
       <c r="S98" t="n">
-        <v>85.52477821074012</v>
+        <v>86.68054919023615</v>
       </c>
       <c r="T98" t="n">
-        <v>78.71798494118264</v>
+        <v>78.6980906333753</v>
       </c>
       <c r="U98" t="n">
-        <v>0.1043542639222654</v>
+        <v>0.1039865847606817</v>
       </c>
       <c r="V98" t="n">
-        <v>-0.02109378169270874</v>
+        <v>-0.01412811063487753</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9425880326134753</v>
+        <v>0.9948919766041613</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7762174919254228</v>
+        <v>0.1194723719088066</v>
       </c>
       <c r="C99" t="n">
-        <v>0.006490294944807509</v>
+        <v>0.02092158269100503</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1006570440906619</v>
+        <v>0.3555245774358528</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4016970117276968</v>
+        <v>0.7123922826673843</v>
       </c>
       <c r="F99" t="n">
-        <v>0.277266971897832</v>
+        <v>0.1546538503420993</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008097576222903117</v>
+        <v>0.04303529060720142</v>
       </c>
       <c r="H99" t="n">
-        <v>0.00301407463437891</v>
+        <v>0.03964601920119863</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0005245336383137053</v>
+        <v>0.0003048148670691757</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0009489534665729121</v>
+        <v>0.004998357333856926</v>
       </c>
       <c r="K99" t="n">
-        <v>0.004955786247658855</v>
+        <v>0.6296368448856653</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9461014726807007</v>
+        <v>0.06763668124801281</v>
       </c>
       <c r="M99" t="n">
-        <v>0.003542274675014494</v>
+        <v>0.1490673173991987</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7889874770161677</v>
+        <v>0.02051937962985332</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1191964283567901</v>
+        <v>0.2382897838843782</v>
       </c>
       <c r="P99" t="n">
-        <v>0.2667436763185035</v>
+        <v>0.2272601838795936</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.8964106110764949</v>
+        <v>0.9356034929286632</v>
       </c>
       <c r="R99" t="n">
-        <v>0.001571444927126654</v>
+        <v>0.001717224198307974</v>
       </c>
       <c r="S99" t="n">
-        <v>85.71013693794167</v>
+        <v>86.99525981744353</v>
       </c>
       <c r="T99" t="n">
-        <v>78.86573300100221</v>
+        <v>78.73377590100054</v>
       </c>
       <c r="U99" t="n">
-        <v>0.1040627424023547</v>
+        <v>0.1055641078314806</v>
       </c>
       <c r="V99" t="n">
-        <v>-0.003708930444349674</v>
+        <v>-0.005300878782656029</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2314701714963803</v>
+        <v>0.3532092703115662</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7186213084157529</v>
+        <v>0.9947290995477198</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2043120511753952</v>
+        <v>0.04764685310207477</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5651905053534252</v>
+        <v>0.5335769530074135</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4484811967053939</v>
+        <v>0.08875847876106488</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07975596458456406</v>
+        <v>0.1507826780524457</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008846962273816109</v>
+        <v>0.1112414321529529</v>
       </c>
       <c r="H100" t="n">
-        <v>0.000367192288817984</v>
+        <v>0.02120198352306512</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0001650047699494669</v>
+        <v>0.0001272457351849579</v>
       </c>
       <c r="J100" t="n">
-        <v>0.001729627309240642</v>
+        <v>0.002860282609332731</v>
       </c>
       <c r="K100" t="n">
-        <v>0.03718275474410174</v>
+        <v>0.7062418634594343</v>
       </c>
       <c r="L100" t="n">
-        <v>0.9816892364819593</v>
+        <v>0.9278945460977027</v>
       </c>
       <c r="M100" t="n">
-        <v>0.001235546861873471</v>
+        <v>0.3503041914718861</v>
       </c>
       <c r="N100" t="n">
-        <v>0.5040379138578315</v>
+        <v>0.885603091420724</v>
       </c>
       <c r="O100" t="n">
-        <v>0.04310961877691029</v>
+        <v>0.01817226308544813</v>
       </c>
       <c r="P100" t="n">
-        <v>0.1712379243315488</v>
+        <v>0.2062870565325372</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.8980050546073165</v>
+        <v>0.9359897385166537</v>
       </c>
       <c r="R100" t="n">
-        <v>0.001573287678164157</v>
+        <v>0.001676124318855981</v>
       </c>
       <c r="S100" t="n">
-        <v>85.48684392184838</v>
+        <v>87.23626266231085</v>
       </c>
       <c r="T100" t="n">
-        <v>78.75532400315534</v>
+        <v>78.72072193504782</v>
       </c>
       <c r="U100" t="n">
-        <v>0.1039813065271065</v>
+        <v>0.1048048056849043</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.007824712079248102</v>
+        <v>-0.03129865567117013</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2114531782376898</v>
+        <v>0.9986091766527379</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9693736072747849</v>
+        <v>0.9483333197138427</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5884487353723931</v>
+        <v>0.00258207031782913</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1334747313360723</v>
+        <v>0.3003783719796861</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4122636435643281</v>
+        <v>0.4333384036670728</v>
       </c>
       <c r="F101" t="n">
-        <v>0.05165488889073826</v>
+        <v>0.4502806557092993</v>
       </c>
       <c r="G101" t="n">
-        <v>0.008859705584510151</v>
+        <v>0.06748913710359337</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0002869024043356686</v>
+        <v>0.01934482446579003</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0001580317400683509</v>
+        <v>0.0002957872952601272</v>
       </c>
       <c r="J101" t="n">
-        <v>2.815386572707661e-05</v>
+        <v>0.0009245357365755436</v>
       </c>
       <c r="K101" t="n">
-        <v>0.002084530987297079</v>
+        <v>0.6909600760303112</v>
       </c>
       <c r="L101" t="n">
-        <v>0.932784124840525</v>
+        <v>0.638945903768995</v>
       </c>
       <c r="M101" t="n">
-        <v>0.001317387179447906</v>
+        <v>0.407427544092545</v>
       </c>
       <c r="N101" t="n">
-        <v>0.006426568972418459</v>
+        <v>0.7708650579204966</v>
       </c>
       <c r="O101" t="n">
-        <v>0.04310961877691029</v>
+        <v>0.1882628317611685</v>
       </c>
       <c r="P101" t="n">
-        <v>0.7646719378883904</v>
+        <v>0.04017570374319464</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.8980222386463517</v>
+        <v>0.9366537661678823</v>
       </c>
       <c r="R101" t="n">
-        <v>0.001589582703566197</v>
+        <v>0.001677507739091357</v>
       </c>
       <c r="S101" t="n">
-        <v>85.41818139084765</v>
+        <v>87.44600540433908</v>
       </c>
       <c r="T101" t="n">
-        <v>78.75890401897358</v>
+        <v>78.94830373748614</v>
       </c>
       <c r="U101" t="n">
-        <v>0.1039159217192418</v>
+        <v>0.1046719072159922</v>
       </c>
       <c r="V101" t="n">
-        <v>-0.01606519581325712</v>
+        <v>-0.004658381272368495</v>
       </c>
     </row>
   </sheetData>
